--- a/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>TSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,230 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1959200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2191800</v>
+      </c>
+      <c r="F8" s="3">
         <v>1984100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2353800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1822200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2133300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1881600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2213200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1682900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1952800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1721700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2017800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1564100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1916500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1542700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1297900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1450000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1289900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1533000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1207200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1416900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1228500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1443800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1119300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1284200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1121200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1313100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1045900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1270300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1007400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>661300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>741800</v>
+      </c>
+      <c r="F10" s="3">
         <v>694200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>820800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>615000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>716400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>653100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>769400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>563600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>668600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>600500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>704700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>518200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>646200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>535300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,8 +905,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +951,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +1001,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,52 +1051,64 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>51400</v>
+      </c>
+      <c r="F15" s="3">
         <v>49800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>49000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>45800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>46000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>45000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>43600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>42800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>43100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>41900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>41000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>39700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>39700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1122,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1846700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2001300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1822300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2066200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1718800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1952900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1728500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1939800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1588200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1769000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1573500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1759800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1467700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1721900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1400700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>112600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>190500</v>
+      </c>
+      <c r="F18" s="3">
         <v>161800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>287600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>103400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>180400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>153100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>273400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>94700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>183800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>148200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>258000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>96400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>194600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1242,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1198,14 +1265,14 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1221,184 +1288,214 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>241800</v>
+      </c>
+      <c r="F21" s="3">
         <v>211600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>336600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>149200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>226300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>198200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>317100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>137600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>227000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>190200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>299000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>136100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>234300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>177700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="E22" s="3">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="F22" s="3">
         <v>4900</v>
       </c>
       <c r="G22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I22" s="3">
         <v>4400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>5000</v>
       </c>
       <c r="J22" s="3">
         <v>4500</v>
       </c>
       <c r="K22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M22" s="3">
         <v>4200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>107500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>185600</v>
+      </c>
+      <c r="F23" s="3">
         <v>156900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>282400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>98500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>175900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>148700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>268500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>90300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>179600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>144500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>254800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>93600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>193000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>41400</v>
+      </c>
+      <c r="F24" s="3">
         <v>34800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>63200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>21600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>39100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>31900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>61200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>18800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>65000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>52600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>94200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>33300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>69400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>144200</v>
+      </c>
+      <c r="F26" s="3">
         <v>122100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>219200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>76800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>136900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>116800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>207300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>71400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>114600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>91900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>160600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>60300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>123600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>144200</v>
+      </c>
+      <c r="F27" s="3">
         <v>122100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>219200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>76800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>136900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>116800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>207300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>71400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>114600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>91900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>160600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>60300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>123600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,40 +1688,46 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>-4900</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>-4900</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1617,8 +1738,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1838,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1726,14 +1865,14 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1749,52 +1888,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>144200</v>
+      </c>
+      <c r="F33" s="3">
         <v>122100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>219200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>76800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>136900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>116800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>207300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>71400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>109700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>91900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>160600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>60300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>123600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>144200</v>
+      </c>
+      <c r="F35" s="3">
         <v>122100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>219200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>76800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>136900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>116800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>207300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>71400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>109700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>91900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>160600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>60300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>123600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,52 +2137,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>461500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>84200</v>
+      </c>
+      <c r="F41" s="3">
         <v>82600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>104000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>102200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>86300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>71300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>70000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>132400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>109100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>70000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>67800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>72700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>53900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,184 +2233,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>5600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>4800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>23700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>5100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>4800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>4800</v>
       </c>
       <c r="L43" s="3">
         <v>4800</v>
       </c>
       <c r="M43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="N43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="O43" s="3">
         <v>4100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>7300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1905900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1602800</v>
+      </c>
+      <c r="F44" s="3">
         <v>1812800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1733200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1881300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1589500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1737300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1632300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1760100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1453200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1591600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1468300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1657800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1369700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1489900</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>112900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100900</v>
+      </c>
+      <c r="F45" s="3">
         <v>104500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>95100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>90700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>114400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>109500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>103400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>86800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>88300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>75600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>90400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>86500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>90600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2480200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1787900</v>
+      </c>
+      <c r="F46" s="3">
         <v>2005500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1937800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2079100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1794400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1941700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1810700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1984100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1655400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1742000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1630500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1824300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1517800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1629800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,52 +2483,64 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3371800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3352800</v>
+      </c>
+      <c r="F48" s="3">
         <v>3276300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3226700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3207800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1134500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1112000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1081500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1050400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1044500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>996800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>982400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>957000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>962300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>923200</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2351,19 +2572,25 @@
         <v>124500</v>
       </c>
       <c r="M49" s="3">
-        <v>125700</v>
+        <v>124500</v>
       </c>
       <c r="N49" s="3">
-        <v>125700</v>
+        <v>124500</v>
       </c>
       <c r="O49" s="3">
         <v>125700</v>
       </c>
       <c r="P49" s="3">
+        <v>125700</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>125700</v>
+      </c>
+      <c r="R49" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,52 +2683,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F52" s="3">
         <v>23000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>23700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>25800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>31900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>42700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>50600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>48800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>44400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>65000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>77000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>69400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>69100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2783,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6002400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5289300</v>
+      </c>
+      <c r="F54" s="3">
         <v>5429300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5312700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5437200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3085300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3220900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3067400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3207800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2868800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2928400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2815600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2976400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2674900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2635700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,272 +2877,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>887900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>643000</v>
+      </c>
+      <c r="F57" s="3">
         <v>679800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>681500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>785100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>620000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>683700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>649700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>732500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>576600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>609900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>510800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>563500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>519500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>484000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F58" s="3">
         <v>33900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>26200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>24900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>29900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>30000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>28700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>28500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>28500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>26000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>23400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>13900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>11300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>572000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>570500</v>
+      </c>
+      <c r="F59" s="3">
         <v>538000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>563600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>501900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>288200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>260900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>263100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>252900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>244100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>236300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>272300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>239700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>246400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1494100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1247600</v>
+      </c>
+      <c r="F60" s="3">
         <v>1251700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1271400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1311900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>938100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>974500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>941500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1013900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>849200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>872200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>806500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>817100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>777200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>712300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1020200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>396900</v>
+      </c>
+      <c r="F61" s="3">
         <v>643100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>493700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>634000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>410400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>577200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>547000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>711300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>433700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>520700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>467500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>624400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>289800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>310000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2134300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2077700</v>
+      </c>
+      <c r="F62" s="3">
         <v>2042700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2002700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2005700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>175000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>173900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>172800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>169300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>167200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>164000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>159000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>155400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>154800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3323,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4648700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3722100</v>
+      </c>
+      <c r="F66" s="3">
         <v>3937500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3767800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3951600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1523400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1725600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1661400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1894500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1450100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1557000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1433000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1596900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1221700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3593,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3655800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3612800</v>
+      </c>
+      <c r="F72" s="3">
         <v>3510100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>3429500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>3252400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>3213900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>3115000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>3036000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2866500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2829200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2753300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2695600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2569500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2540400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2448300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3793,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1353700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1567100</v>
+      </c>
+      <c r="F76" s="3">
         <v>1491800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1544900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1485600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1561800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1495300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1406000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1313200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1418700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1371400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1382600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1379500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1453200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1464700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>144200</v>
+      </c>
+      <c r="F81" s="3">
         <v>122100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>219200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>76800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>136900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>116800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>207300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>71400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>109700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>91900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>160600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>60300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>123600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,52 +4022,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>51400</v>
+      </c>
+      <c r="F83" s="3">
         <v>49800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>49000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>45800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>46000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>45000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>43600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>42800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>43100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>41900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>41000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>39700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>39700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4318,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>397400</v>
+      </c>
+      <c r="F89" s="3">
         <v>65500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>361900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-13000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>341000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>79400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>295900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-21900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>290500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>113500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>369200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-141700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>376700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4392,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-73100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-60800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-54800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-28800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-84800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-77000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-71600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-45100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-98400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-55400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-61700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-34900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-284900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4538,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-72900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-59100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-54500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-28400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-84700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-75300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-71300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-45100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-96800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-55300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-51000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-34900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-202500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,52 +4612,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-41500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="G96" s="3">
         <v>-42100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-37600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-37900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-37800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-37800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-33600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-33900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-34100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-34600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-31300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-31400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4808,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>322600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-322900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-27700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-305600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>57400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-241300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-287000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>90200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-154600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-55900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-323100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>195300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-164200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,48 +4908,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>377200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-21400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>15900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>15000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-62400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>23300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>39100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-4900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>18800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-95600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>TSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,243 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3176300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1959200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2191800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1984100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2353800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1822200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2133300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1881600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2213200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1682900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1952800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1721700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2017800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1564100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1916500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1542700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2019500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1297900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1450000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1289900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1533000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1207200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1416900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1228500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1443800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1119300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1284200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1121200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1313100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1045900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1270300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1007400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1156800</v>
+      </c>
+      <c r="E10" s="3">
         <v>661300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>741800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>694200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>820800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>615000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>716400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>653100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>769400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>563600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>668600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>600500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>704700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>518200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>646200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>535300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1024,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,58 +1077,64 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>51400</v>
+        <v>52500</v>
       </c>
       <c r="E15" s="3">
         <v>51400</v>
       </c>
       <c r="F15" s="3">
+        <v>51400</v>
+      </c>
+      <c r="G15" s="3">
         <v>49800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>49000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>45800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>46000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>45000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>43600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>42800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>43100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>41900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>41000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>39700</v>
       </c>
       <c r="Q15" s="3">
         <v>39700</v>
       </c>
       <c r="R15" s="3">
+        <v>39700</v>
+      </c>
+      <c r="S15" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2728600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1846700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2001300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1822300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2066200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1718800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1952900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1728500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1939800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1588200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1769000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1573500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1759800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1467700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1721900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1400700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>447700</v>
+      </c>
+      <c r="E18" s="3">
         <v>112600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>190500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>161800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>287600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>103400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>180400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>153100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>273400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>94700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>183800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>148200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>258000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>96400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>194600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,8 +1277,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1271,11 +1305,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1294,208 +1328,223 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500300</v>
+      </c>
+      <c r="E21" s="3">
         <v>164000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>241800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>211600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>336600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>149200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>226300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>198200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>317100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>137600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>227000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>190200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>299000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>136100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>234300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>177700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E22" s="3">
         <v>5000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>439300</v>
+      </c>
+      <c r="E23" s="3">
         <v>107500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>185600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>156900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>282400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>98500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>175900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>148700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>268500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>90300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>179600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>144500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>254800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>93600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>193000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100600</v>
+      </c>
+      <c r="E24" s="3">
         <v>23700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>41400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>34800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>63200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>21600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>39100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>31900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>61200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>65000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>52600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>94200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>33300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>69400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>338700</v>
+      </c>
+      <c r="E26" s="3">
         <v>83800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>144200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>122100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>219200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>76800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>136900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>116800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>207300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>71400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>114600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>91900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>160600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>60300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>123600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>338700</v>
+      </c>
+      <c r="E27" s="3">
         <v>83800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>144200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>122100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>219200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>76800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>136900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>116800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>207300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>71400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>114600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>91900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>160600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>60300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>123600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,19 +1752,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1714,11 +1775,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1726,11 +1787,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-4900</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,8 +1911,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1871,11 +1941,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1894,58 +1964,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>338700</v>
+      </c>
+      <c r="E33" s="3">
         <v>83800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>144200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>122100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>219200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>76800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>136900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>116800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>207300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>71400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>109700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>91900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>160600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>60300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>123600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>338700</v>
+      </c>
+      <c r="E35" s="3">
         <v>83800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>144200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>122100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>219200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>76800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>136900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>116800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>207300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>71400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>109700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>91900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>160600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>60300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>123600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,58 +2225,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1206400</v>
+      </c>
+      <c r="E41" s="3">
         <v>461500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>84200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>82600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>104000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>102200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>86300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>71300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>70000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>132400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>109100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>70000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>67800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>72700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>53900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,8 +2329,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2251,25 +2344,25 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>5600</v>
       </c>
       <c r="H43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I43" s="3">
         <v>4800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>23700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>4800</v>
       </c>
       <c r="M43" s="3">
         <v>4800</v>
@@ -2278,169 +2371,181 @@
         <v>4800</v>
       </c>
       <c r="O43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="P43" s="3">
         <v>4100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1688500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1905900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1602800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1812800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1733200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1881300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1589500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1737300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1632300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1760100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1453200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1591600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1468300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1657800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1369700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1489900</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>135200</v>
+      </c>
+      <c r="E45" s="3">
         <v>112900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>104500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>95100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>90700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>114400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>109500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>103400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>86800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>88300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>75600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>90400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>86500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>90600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3030100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2480200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1787900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2005500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1937800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2079100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1794400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1941700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1810700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1984100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1655400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1742000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1630500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1824300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1517800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1629800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,58 +2594,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3416800</v>
+      </c>
+      <c r="E48" s="3">
         <v>3371800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3352800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3276300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3226700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3207800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1134500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1112000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1081500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1050400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1044500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>996800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>982400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>957000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>962300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>923200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2578,7 +2689,7 @@
         <v>124500</v>
       </c>
       <c r="O49" s="3">
-        <v>125700</v>
+        <v>124500</v>
       </c>
       <c r="P49" s="3">
         <v>125700</v>
@@ -2587,10 +2698,13 @@
         <v>125700</v>
       </c>
       <c r="R49" s="3">
+        <v>125700</v>
+      </c>
+      <c r="S49" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,58 +2806,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E52" s="3">
         <v>25900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>24100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>23000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>23700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>25800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>31900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>42700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>50600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>48800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>44400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>65000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>77000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>69400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>69100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6611100</v>
+      </c>
+      <c r="E54" s="3">
         <v>6002400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5289300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5429300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5312700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5437200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3085300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3220900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3067400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3207800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2868800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2928400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2815600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2976400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2674900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2635700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,308 +3009,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1003700</v>
+      </c>
+      <c r="E57" s="3">
         <v>887900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>643000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>679800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>681500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>785100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>620000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>683700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>649700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>732500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>576600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>609900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>510800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>563500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>519500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>484000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>384300</v>
+      </c>
+      <c r="E58" s="3">
         <v>34200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>34000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>33900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>26200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>24900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>29900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>30000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>28700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>28500</v>
       </c>
       <c r="M58" s="3">
         <v>28500</v>
       </c>
       <c r="N58" s="3">
+        <v>28500</v>
+      </c>
+      <c r="O58" s="3">
         <v>26000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>23400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13900</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>11300</v>
       </c>
       <c r="R58" s="3">
         <v>11300</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>769000</v>
+      </c>
+      <c r="E59" s="3">
         <v>572000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>570500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>538000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>563600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>501900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>288200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>260900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>263100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>252900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>244100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>236300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>272300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>239700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>246400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2157100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1494100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1247600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1251700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1271400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1311900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>938100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>974500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>941500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1013900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>849200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>872200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>806500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>817100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>777200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>712300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>568100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1020200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>396900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>643100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>493700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>634000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>410400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>577200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>547000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>711300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>433700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>520700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>467500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>624400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>289800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>310000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2190100</v>
+      </c>
+      <c r="E62" s="3">
         <v>2134300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2077700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2042700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2002700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2005700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>175000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>173900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>172800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>169300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>167200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>164000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>159000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>155400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>154800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4915300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4648700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3722100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3937500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3767800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3951600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1523400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1725600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1661400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1894500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1450100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1557000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1433000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1596900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1221700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3953800</v>
+      </c>
+      <c r="E72" s="3">
         <v>3655800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3612800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3510100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3429500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3252400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3213900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3115000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3036000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2866500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2829200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2753300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2695600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2569500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2540400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2448300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1695700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1353700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1567100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1491800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1544900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1485600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1561800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1495300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1406000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1313200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1418700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1371400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1382600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1379500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1453200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1464700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>338700</v>
+      </c>
+      <c r="E81" s="3">
         <v>83800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>144200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>122100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>219200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>76800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>136900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>116800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>207300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>71400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>109700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>91900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>160600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>60300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>123600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>51400</v>
+        <v>52500</v>
       </c>
       <c r="E83" s="3">
         <v>51400</v>
       </c>
       <c r="F83" s="3">
+        <v>51400</v>
+      </c>
+      <c r="G83" s="3">
         <v>49800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>49000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>45800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>46000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>45000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>43600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>42800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>43100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>41900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>41000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>39700</v>
       </c>
       <c r="Q83" s="3">
         <v>39700</v>
       </c>
       <c r="R83" s="3">
+        <v>39700</v>
+      </c>
+      <c r="S83" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>909200</v>
+      </c>
+      <c r="E89" s="3">
         <v>83900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>397400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>65500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>361900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>341000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>79400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>295900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-21900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>290500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>113500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>369200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-141700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>376700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-73100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-60800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-54800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-28800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-84800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-77000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-71600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-45100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-98400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-55400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-61700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-34900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-284900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-56700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-72900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-59100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-84700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-75300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-71300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-45100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-96800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-55300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-51000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-34900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-202500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,58 +4847,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-40800</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-41500</v>
       </c>
       <c r="F96" s="3">
         <v>-41500</v>
       </c>
       <c r="G96" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="H96" s="3">
         <v>-42100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-37600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-37900</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-37800</v>
       </c>
       <c r="K96" s="3">
         <v>-37800</v>
       </c>
       <c r="L96" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="M96" s="3">
         <v>-33600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-33900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-34100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-34600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-31300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-31400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,58 +5057,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-107700</v>
+      </c>
+      <c r="E100" s="3">
         <v>322600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-322900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-27700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-305600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>57400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-241300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-287000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>90200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-154600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-55900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-323100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>195300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-164200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,54 +5163,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>744900</v>
+      </c>
+      <c r="E102" s="3">
         <v>377200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-21400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>15900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-62400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>23300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>39100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-95600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>TSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,256 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2606600</v>
+      </c>
+      <c r="E8" s="3">
         <v>3176300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1959200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2191800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1984100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2353800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1822200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2133300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1881600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2213200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1682900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1952800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1721700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2017800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1564100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1916500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1542700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1658600</v>
+      </c>
+      <c r="E9" s="3">
         <v>2019500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1297900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1450000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1289900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1533000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1207200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1416900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1228500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1443800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1119300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1284200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1121200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1313100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1045900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1270300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1007400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>948000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1156800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>661300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>741800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>694200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>820800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>615000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>716400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>653100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>769400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>563600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>668600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>704700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>518200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>646200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>535300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,61 +1100,67 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E15" s="3">
         <v>52500</v>
-      </c>
-      <c r="E15" s="3">
-        <v>51400</v>
       </c>
       <c r="F15" s="3">
         <v>51400</v>
       </c>
       <c r="G15" s="3">
+        <v>51400</v>
+      </c>
+      <c r="H15" s="3">
         <v>49800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>49000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>45800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>46000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>45000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>43600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>42800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>43100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>41900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>41000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>39700</v>
       </c>
       <c r="R15" s="3">
         <v>39700</v>
       </c>
       <c r="S15" s="3">
+        <v>39700</v>
+      </c>
+      <c r="T15" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2354400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2728600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1846700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2001300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1822300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2066200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1718800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1952900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1728500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1939800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1588200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1769000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1573500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1759800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1467700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1721900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1400700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>252200</v>
+      </c>
+      <c r="E18" s="3">
         <v>447700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>112600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>190500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>161800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>287600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>103400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>180400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>153100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>273400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>94700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>183800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>148200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>258000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>96400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>194600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,8 +1311,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1308,11 +1342,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1331,220 +1365,235 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>306800</v>
+      </c>
+      <c r="E21" s="3">
         <v>500300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>164000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>241800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>211600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>336600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>149200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>226300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>198200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>317100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>137600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>227000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>190200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>299000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>136100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>234300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>177700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E22" s="3">
         <v>8400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E23" s="3">
         <v>439300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>107500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>185600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>156900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>282400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>98500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>175900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>148700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>268500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>90300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>179600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>144500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>254800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>93600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>193000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E24" s="3">
         <v>100600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>41400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>34800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>63200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>21600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>39100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>61200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>65000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>52600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>94200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>33300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>69400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>190600</v>
+      </c>
+      <c r="E26" s="3">
         <v>338700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>83800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>144200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>122100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>219200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>76800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>136900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>116800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>207300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>71400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>114600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>91900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>160600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>60300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>123600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>190600</v>
+      </c>
+      <c r="E27" s="3">
         <v>338700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>83800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>144200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>122100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>219200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>76800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>136900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>116800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>207300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>71400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>114600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>91900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>160600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>60300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>123600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1766,11 +1827,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1778,11 +1839,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1790,11 +1851,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-4900</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,8 +1981,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1944,11 +2014,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1967,61 +2037,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>190600</v>
+      </c>
+      <c r="E33" s="3">
         <v>338700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>83800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>144200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>122100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>219200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>76800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>136900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>116800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>207300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>71400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>109700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>91900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>160600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>60300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>123600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>190600</v>
+      </c>
+      <c r="E35" s="3">
         <v>338700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>83800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>144200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>122100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>219200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>76800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>136900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>116800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>207300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>71400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>109700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>91900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>160600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>60300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>123600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,61 +2312,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1112000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1206400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>461500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>84200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>82600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>104000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>102200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>86300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>71300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>70000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>132400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>109100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>70000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>67800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>72700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>53900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,13 +2422,16 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2347,25 +2440,25 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>5600</v>
       </c>
       <c r="I43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J43" s="3">
         <v>4800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>4800</v>
       </c>
       <c r="N43" s="3">
         <v>4800</v>
@@ -2374,178 +2467,190 @@
         <v>4800</v>
       </c>
       <c r="P43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Q43" s="3">
         <v>4100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1915000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1688500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1905900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1602800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1812800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1733200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1881300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1589500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1737300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1632300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1760100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1453200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1591600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1468300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1657800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1369700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1489900</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>136100</v>
+      </c>
+      <c r="E45" s="3">
         <v>135200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>112900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>104500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>95100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>90700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>114400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>109500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>103400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>86800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>88300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>75600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>90400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>86500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>90600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3171000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3030100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2480200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1787900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2005500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1937800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2079100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1794400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1941700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1810700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1984100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1655400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1742000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1630500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1824300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1517800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1629800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2597,61 +2702,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3532800</v>
+      </c>
+      <c r="E48" s="3">
         <v>3416800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3371800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3352800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3276300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3226700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3207800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1134500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1112000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1081500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1050400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1044500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>996800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>982400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>957000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>962300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>923200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2692,7 +2803,7 @@
         <v>124500</v>
       </c>
       <c r="P49" s="3">
-        <v>125700</v>
+        <v>124500</v>
       </c>
       <c r="Q49" s="3">
         <v>125700</v>
@@ -2701,10 +2812,13 @@
         <v>125700</v>
       </c>
       <c r="S49" s="3">
+        <v>125700</v>
+      </c>
+      <c r="T49" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,61 +2926,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E52" s="3">
         <v>39600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>24100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>23000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>23700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>25800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>31900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>42700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>50600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>48800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>44400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>65000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>77000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>69400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>69100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6860800</v>
+      </c>
+      <c r="E54" s="3">
         <v>6611100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6002400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5289300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5429300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5312700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5437200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3085300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3220900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3067400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3207800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2868800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2928400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2815600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2976400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2674900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2635700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,326 +3140,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1056900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1003700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>887900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>643000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>679800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>681500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>785100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>620000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>683700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>649700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>732500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>576600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>609900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>510800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>563500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>519500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>484000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>384400</v>
+      </c>
+      <c r="E58" s="3">
         <v>384300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>34200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>34000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>33900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>26200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>24900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>29900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>30000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>28700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>28500</v>
       </c>
       <c r="N58" s="3">
         <v>28500</v>
       </c>
       <c r="O58" s="3">
+        <v>28500</v>
+      </c>
+      <c r="P58" s="3">
         <v>26000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>23400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13900</v>
-      </c>
-      <c r="R58" s="3">
-        <v>11300</v>
       </c>
       <c r="S58" s="3">
         <v>11300</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>691300</v>
+      </c>
+      <c r="E59" s="3">
         <v>769000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>572000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>570500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>538000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>563600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>501900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>288200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>260900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>263100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>252900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>244100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>236300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>272300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>239700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>246400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2132700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2157100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1494100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1247600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1251700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1271400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1311900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>938100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>974500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>941500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1013900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>849200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>872200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>806500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>817100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>777200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>712300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>562200</v>
+      </c>
+      <c r="E61" s="3">
         <v>568100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1020200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>396900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>643100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>493700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>634000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>410400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>577200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>547000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>711300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>433700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>520700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>467500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>624400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>289800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>310000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2290100</v>
+      </c>
+      <c r="E62" s="3">
         <v>2190100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2134300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2077700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2042700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2002700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2005700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>175000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>173900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>172800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>169300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>167200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>164000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>159000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>155400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>154800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4984900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4915300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4648700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3722100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3937500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3767800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3951600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1523400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1725600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1661400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1894500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1450100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1557000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1433000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1596900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1221700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4097900</v>
+      </c>
+      <c r="E72" s="3">
         <v>3953800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3655800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3612800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3510100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3429500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3252400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3213900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3115000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3036000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2866500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2829200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2753300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2695600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2569500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2540400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2448300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1875900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1695700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1353700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1567100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1491800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1544900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1485600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1561800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1495300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1406000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1313200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1418700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1371400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1382600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1379500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1453200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1464700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>190600</v>
+      </c>
+      <c r="E81" s="3">
         <v>338700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>83800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>144200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>122100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>219200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>76800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>136900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>116800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>207300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>71400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>109700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>91900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>160600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>60300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>123600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4421,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E83" s="3">
         <v>52500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>51400</v>
       </c>
       <c r="F83" s="3">
         <v>51400</v>
       </c>
       <c r="G83" s="3">
+        <v>51400</v>
+      </c>
+      <c r="H83" s="3">
         <v>49800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>49000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>45800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>46000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>45000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>43600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>42800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>43100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>41900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>41000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>39700</v>
       </c>
       <c r="R83" s="3">
         <v>39700</v>
       </c>
       <c r="S83" s="3">
+        <v>39700</v>
+      </c>
+      <c r="T83" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E89" s="3">
         <v>909200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>83900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>397400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>65500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>361900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>341000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>79400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>295900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-21900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>290500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>113500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>369200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-141700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>376700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-74700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-57000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-73100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-60800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-54800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-28800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-84800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-77000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-71600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-45100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-98400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-55400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-61700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-34900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-284900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-74200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-56700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-29300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-72900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-59100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-54500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-28400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-84700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-75300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-71300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-45100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-96800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-55300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-51000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-34900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-202500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,61 +5081,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-40600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-40800</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-41500</v>
       </c>
       <c r="G96" s="3">
         <v>-41500</v>
       </c>
       <c r="H96" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="I96" s="3">
         <v>-42100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-37600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-37900</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-37800</v>
       </c>
       <c r="L96" s="3">
         <v>-37800</v>
       </c>
       <c r="M96" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="N96" s="3">
         <v>-33600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-33900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-34100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-34600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-31300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-31400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,61 +5303,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-107700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>322600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-322900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-27700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-305600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>57400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-241300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-287000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>90200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-154600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-55900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-323100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>195300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-164200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-94400</v>
+      </c>
+      <c r="E102" s="3">
         <v>744900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>377200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-21400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-62400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>23300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>39100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-95600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>TSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,268 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2878300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2606600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3176300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1959200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2191800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1984100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2353800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1822200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2133300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1881600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2213200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1682900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1952800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1721700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2017800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1564100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1916500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1542700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1882700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1658600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2019500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1297900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1450000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1289900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1533000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1207200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1416900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1228500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1443800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1119300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1284200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1121200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1313100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1045900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1270300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1007400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>995600</v>
+      </c>
+      <c r="E10" s="3">
         <v>948000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1156800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>661300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>741800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>694200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>820800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>615000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>716400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>653100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>769400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>563600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>668600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>600500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>704700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>518200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>646200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>535300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,8 +947,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,31 +1063,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>69000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1103,64 +1122,70 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E15" s="3">
         <v>54700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>52500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>51400</v>
       </c>
       <c r="G15" s="3">
         <v>51400</v>
       </c>
       <c r="H15" s="3">
+        <v>51400</v>
+      </c>
+      <c r="I15" s="3">
         <v>49800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>49000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>45800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>46000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>45000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>43600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>42800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>43100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>41900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>41000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>39700</v>
       </c>
       <c r="S15" s="3">
         <v>39700</v>
       </c>
       <c r="T15" s="3">
+        <v>39700</v>
+      </c>
+      <c r="U15" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2693800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2354400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2728600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1846700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2001300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1822300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2066200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1718800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1952900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1728500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1939800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1588200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1769000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1573500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1759800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1467700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1721900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1400700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>184500</v>
+      </c>
+      <c r="E18" s="3">
         <v>252200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>447700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>112600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>190500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>161800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>287600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>103400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>180400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>153100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>273400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>94700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>183800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>148200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>258000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>96400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>194600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,8 +1344,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1345,11 +1378,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1368,232 +1401,247 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>243000</v>
+      </c>
+      <c r="E21" s="3">
         <v>306800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>164000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>241800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>211600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>336600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>149200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>226300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>198200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>317100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>137600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>227000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>190200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>299000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>136100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>234300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>177700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E22" s="3">
         <v>7200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>176400</v>
+      </c>
+      <c r="E23" s="3">
         <v>245000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>439300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>107500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>185600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>156900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>282400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>98500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>175900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>148700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>268500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>90300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>179600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>144500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>254800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>93600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>193000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E24" s="3">
         <v>54400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>41400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>34800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>63200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>21600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>61200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>65000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>52600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>94200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>33300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>69400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E26" s="3">
         <v>190600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>338700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>83800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>144200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>122100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>219200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>76800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>136900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>116800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>207300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>71400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>114600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>91900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>160600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>60300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>123600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E27" s="3">
         <v>190600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>338700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>83800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>144200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>122100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>219200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>76800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>136900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>116800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>207300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>71400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>114600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>91900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>160600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>60300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>123600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1830,11 +1890,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1842,11 +1902,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1854,11 +1914,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-4900</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1872,8 +1932,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,8 +2050,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2017,11 +2086,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2040,64 +2109,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E33" s="3">
         <v>190600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>338700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>83800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>144200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>122100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>219200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>76800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>136900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>116800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>207300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>71400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>109700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>91900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>160600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>60300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>123600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E35" s="3">
         <v>190600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>338700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>83800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>144200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>122100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>219200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>76800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>136900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>116800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>207300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>71400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>109700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>91900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>160600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>60300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>123600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,64 +2398,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1341800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1112000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1206400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>461500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>84200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>82600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>104000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>102200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>86300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>71300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>70000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>132400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>109100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>70000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>67800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>72700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>53900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,17 +2514,20 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3">
         <v>7800</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
@@ -2443,25 +2535,25 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>5600</v>
       </c>
       <c r="J43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K43" s="3">
         <v>4800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>23700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>4800</v>
       </c>
       <c r="O43" s="3">
         <v>4800</v>
@@ -2470,187 +2562,199 @@
         <v>4800</v>
       </c>
       <c r="Q43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="R43" s="3">
         <v>4100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1783300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1915000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1688500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1905900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1602800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1812800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1733200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1881300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1589500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1737300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1632300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1760100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1453200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1591600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1468300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1657800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1369700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1489900</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>133700</v>
+      </c>
+      <c r="E45" s="3">
         <v>136100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>135200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>112900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>104500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>95100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>90700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>114400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>109500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>103400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>86800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>88300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>75600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>90400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>86500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>90600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3258700</v>
+      </c>
+      <c r="E46" s="3">
         <v>3171000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3030100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2480200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1787900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2005500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1937800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2079100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1794400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1941700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1810700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1984100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1655400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1742000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1630500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1824300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1517800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1629800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,69 +2809,75 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3672800</v>
+      </c>
+      <c r="E48" s="3">
         <v>3532800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3416800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3371800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3352800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3276300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3226700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3207800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1134500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1112000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1081500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1050400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1044500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>996800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>982400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>957000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>962300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>923200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>124500</v>
+        <v>55500</v>
       </c>
       <c r="E49" s="3">
         <v>124500</v>
@@ -2806,7 +2916,7 @@
         <v>124500</v>
       </c>
       <c r="Q49" s="3">
-        <v>125700</v>
+        <v>124500</v>
       </c>
       <c r="R49" s="3">
         <v>125700</v>
@@ -2815,10 +2925,13 @@
         <v>125700</v>
       </c>
       <c r="T49" s="3">
+        <v>125700</v>
+      </c>
+      <c r="U49" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,64 +3045,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E52" s="3">
         <v>32500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>39600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>24100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>23000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>23700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>25800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>31900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>42700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>50600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>48800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>44400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>65000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>77000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>69400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>69100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3163,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7049100</v>
+      </c>
+      <c r="E54" s="3">
         <v>6860800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6611100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6002400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5289300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5429300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5312700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5437200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3085300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3220900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3067400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3207800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2868800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2928400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2815600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2976400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2674900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2635700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,344 +3270,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>976100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1056900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1003700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>887900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>643000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>679800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>681500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>785100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>620000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>683700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>649700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>732500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>576600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>609900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>510800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>563500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>519500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>484000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E58" s="3">
         <v>384400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>384300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>34200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>34000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>33900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>26200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>24900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>29900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>30000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>28700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>28500</v>
       </c>
       <c r="O58" s="3">
         <v>28500</v>
       </c>
       <c r="P58" s="3">
+        <v>28500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>26000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>23400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13900</v>
-      </c>
-      <c r="S58" s="3">
-        <v>11300</v>
       </c>
       <c r="T58" s="3">
         <v>11300</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>763100</v>
+      </c>
+      <c r="E59" s="3">
         <v>691300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>769000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>572000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>570500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>538000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>563600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>501900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>288200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>260900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>263100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>252900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>244100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>236300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>272300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>239700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>246400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1743800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2132700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2157100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1494100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1247600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1251700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1271400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1311900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>938100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>974500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>941500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1013900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>849200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>872200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>806500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>817100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>777200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>712300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1017400</v>
+      </c>
+      <c r="E61" s="3">
         <v>562200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>568100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1020200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>396900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>643100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>493700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>634000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>410400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>577200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>547000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>711300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>433700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>520700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>467500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>624400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>289800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>310000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2364100</v>
+      </c>
+      <c r="E62" s="3">
         <v>2290100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2190100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2134300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2077700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2042700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2002700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2005700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>175000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>173900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>172800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>169300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>167200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>164000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>159000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>155400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>154800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3799,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5125300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4984900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4915300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4648700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3722100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3937500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3767800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3951600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1523400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1725600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1661400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1894500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1450100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1557000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1433000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1596900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1221700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4117,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4187100</v>
+      </c>
+      <c r="E72" s="3">
         <v>4097900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3953800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3655800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3612800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3510100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3429500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3252400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3213900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3115000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3036000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2866500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2829200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2753300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2695600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2569500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2540400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2448300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4353,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1923800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1875900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1695700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1353700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1567100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1491800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1544900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1485600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1561800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1495300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1406000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1313200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1418700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1371400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1382600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1379500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1453200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1464700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E81" s="3">
         <v>190600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>338700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>83800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>144200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>122100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>219200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>76800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>136900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>116800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>207300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>71400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>109700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>91900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>160600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>60300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>123600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4619,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E83" s="3">
         <v>54700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>52500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>51400</v>
       </c>
       <c r="G83" s="3">
         <v>51400</v>
       </c>
       <c r="H83" s="3">
+        <v>51400</v>
+      </c>
+      <c r="I83" s="3">
         <v>49800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>49000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>45800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>46000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>45000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>43600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>42800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>43100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>41900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>41000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>39700</v>
       </c>
       <c r="S83" s="3">
         <v>39700</v>
       </c>
       <c r="T83" s="3">
+        <v>39700</v>
+      </c>
+      <c r="U83" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>389500</v>
+      </c>
+      <c r="E89" s="3">
         <v>11800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>909200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>83900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>397400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>65500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>361900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>341000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>79400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>295900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-21900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>290500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>113500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>369200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-141700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>376700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5055,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-132700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-74700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-57000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-73100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-60800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-54800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-28800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-84800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-77000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-71600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-45100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-98400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-55400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-61700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-34900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-284900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-74200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-56700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-29300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-72900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-59100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-54500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-28400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-84700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-75300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-71300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-45100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-96800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-55300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-51000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-34900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-202500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,64 +5314,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-46500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-40600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-40800</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-41500</v>
       </c>
       <c r="H96" s="3">
         <v>-41500</v>
       </c>
       <c r="I96" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="J96" s="3">
         <v>-42100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-37600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-37900</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-37800</v>
       </c>
       <c r="M96" s="3">
         <v>-37800</v>
       </c>
       <c r="N96" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="O96" s="3">
         <v>-33600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-33900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-34100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-34600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-31300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-31400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,64 +5548,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-32000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-107700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>322600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-322900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-27700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-305600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>57400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-241300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-287000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>90200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-154600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-55900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-323100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>195300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-164200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,60 +5666,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>229800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-94400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>744900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>377200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-21400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-62400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>23300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>39100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-95600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>TSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,268 +665,281 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E7" s="2">
         <v>44191</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2792300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2878300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2606600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3176300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1959200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2191800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1984100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2353800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1822200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2133300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1881600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2213200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1682900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1952800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1721700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2017800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1564100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1916500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1542700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1808600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1882700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1658600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2019500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1297900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1450000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1289900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1533000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1207200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1416900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1228500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1443800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1119300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1284200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1121200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1313100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1045900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1270300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1007400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>983700</v>
+      </c>
+      <c r="E10" s="3">
         <v>995600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>948000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1156800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>661300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>741800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>694200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>820800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>615000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>716400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>653100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>769400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>563600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>668600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>704700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>518200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>646200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>535300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,8 +961,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1007,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,16 +1083,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>69000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1092,8 +1112,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1125,67 +1145,73 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E15" s="3">
         <v>58500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>54700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>52500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>51400</v>
       </c>
       <c r="H15" s="3">
         <v>51400</v>
       </c>
       <c r="I15" s="3">
+        <v>51400</v>
+      </c>
+      <c r="J15" s="3">
         <v>49800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>49000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>45800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>46000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>45000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>43600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>42800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>43100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>41900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>41000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>39700</v>
       </c>
       <c r="T15" s="3">
         <v>39700</v>
       </c>
       <c r="U15" s="3">
+        <v>39700</v>
+      </c>
+      <c r="V15" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2561800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2693800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2354400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2728600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1846700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2001300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1822300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2066200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1718800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1952900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1728500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1939800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1588200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1769000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1573500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1759800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1467700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1721900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1400700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>230500</v>
+      </c>
+      <c r="E18" s="3">
         <v>184500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>252200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>447700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>112600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>190500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>161800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>287600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>103400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>180400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>153100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>273400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>94700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>183800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>148200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>258000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>96400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>194600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,8 +1378,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1381,11 +1415,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1404,244 +1438,259 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>290600</v>
+      </c>
+      <c r="E21" s="3">
         <v>243000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>306800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>164000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>241800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>211600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>336600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>149200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>226300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>198200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>317100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>137600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>227000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>190200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>299000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>136100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>234300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>177700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E22" s="3">
         <v>8100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>223300</v>
+      </c>
+      <c r="E23" s="3">
         <v>176400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>245000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>439300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>107500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>185600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>156900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>282400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>98500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>175900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>148700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>268500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>90300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>179600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>144500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>254800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>93600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>193000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E24" s="3">
         <v>40500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>54400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>41400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>34800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>63200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>31900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>61200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>65000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>52600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>94200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>33300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>69400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>181400</v>
+      </c>
+      <c r="E26" s="3">
         <v>135900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>190600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>338700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>83800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>144200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>122100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>219200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>76800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>136900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>116800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>207300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>71400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>114600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>91900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>160600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>60300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>123600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>181400</v>
+      </c>
+      <c r="E27" s="3">
         <v>135900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>190600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>338700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>83800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>144200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>122100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>219200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>76800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>136900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>116800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>207300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>71400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>114600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>91900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>160600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>60300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>123600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,40 +1934,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1917,11 +1978,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-4900</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,8 +2120,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2089,11 +2159,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2112,67 +2182,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>181400</v>
+      </c>
+      <c r="E33" s="3">
         <v>135900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>190600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>338700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>83800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>144200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>122100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>219200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>76800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>136900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>116800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>207300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>71400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>109700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>91900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>160600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>60300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>123600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>181400</v>
+      </c>
+      <c r="E35" s="3">
         <v>135900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>190600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>338700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>83800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>144200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>122100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>219200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>76800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>136900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>116800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>207300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>71400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>109700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>91900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>160600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>60300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>123600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E38" s="2">
         <v>44191</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,67 +2485,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1149900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1341800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1112000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1206400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>461500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>84200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>82600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>104000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>102200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>86300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>71300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>70000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>132400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>109100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>70000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>67800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>72700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>53900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,20 +2607,23 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3">
         <v>7800</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
@@ -2538,25 +2631,25 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>5600</v>
       </c>
       <c r="K43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="L43" s="3">
         <v>4800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>23700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>4800</v>
       </c>
       <c r="P43" s="3">
         <v>4800</v>
@@ -2565,196 +2658,208 @@
         <v>4800</v>
       </c>
       <c r="R43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="S43" s="3">
         <v>4100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2084700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1783300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1915000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1688500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1905900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1602800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1812800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1733200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1881300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1589500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1737300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1632300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1760100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1453200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1591600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1468300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1657800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1369700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1489900</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>146200</v>
+      </c>
+      <c r="E45" s="3">
         <v>133700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>136100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>135200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>112900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>104500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>95100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>90700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>114400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>109500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>103400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>86800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>88300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>75600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>90400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>86500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>90600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3380800</v>
+      </c>
+      <c r="E46" s="3">
         <v>3258700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3171000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3030100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2480200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1787900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2005500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1937800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2079100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1794400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1941700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1810700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1984100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1655400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1742000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1630500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1824300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1517800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1629800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2812,67 +2917,73 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3876400</v>
+      </c>
+      <c r="E48" s="3">
         <v>3672800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3532800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3416800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3371800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3352800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3276300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3226700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3207800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1134500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1112000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1081500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1050400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1044500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>996800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>982400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>957000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>962300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>923200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2880,7 +2991,7 @@
         <v>55500</v>
       </c>
       <c r="E49" s="3">
-        <v>124500</v>
+        <v>55500</v>
       </c>
       <c r="F49" s="3">
         <v>124500</v>
@@ -2919,7 +3030,7 @@
         <v>124500</v>
       </c>
       <c r="R49" s="3">
-        <v>125700</v>
+        <v>124500</v>
       </c>
       <c r="S49" s="3">
         <v>125700</v>
@@ -2928,10 +3039,13 @@
         <v>125700</v>
       </c>
       <c r="U49" s="3">
+        <v>125700</v>
+      </c>
+      <c r="V49" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,67 +3165,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E52" s="3">
         <v>62100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>32500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>39600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>24100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>23000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>23700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>31900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>42700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>50600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>48800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>44400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>65000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>77000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>69400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>69100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,67 +3289,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7359700</v>
+      </c>
+      <c r="E54" s="3">
         <v>7049100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6860800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6611100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6002400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5289300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5429300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5312700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5437200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3085300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3220900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3067400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3207800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2868800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2928400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2815600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2976400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2674900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2635700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,362 +3401,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1181900</v>
+      </c>
+      <c r="E57" s="3">
         <v>976100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1056900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1003700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>887900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>643000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>679800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>681500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>785100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>620000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>683700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>649700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>732500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>576600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>609900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>510800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>563500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>519500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>484000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E58" s="3">
         <v>4600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>384400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>384300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>34200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>34000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>33900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>26200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>29900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>30000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>28700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>28500</v>
       </c>
       <c r="P58" s="3">
         <v>28500</v>
       </c>
       <c r="Q58" s="3">
+        <v>28500</v>
+      </c>
+      <c r="R58" s="3">
         <v>26000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>23400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13900</v>
-      </c>
-      <c r="T58" s="3">
-        <v>11300</v>
       </c>
       <c r="U58" s="3">
         <v>11300</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>789300</v>
+      </c>
+      <c r="E59" s="3">
         <v>763100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>691300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>769000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>572000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>570500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>538000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>563600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>501900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>288200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>260900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>263100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>252900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>244100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>236300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>272300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>239700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>246400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1975900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1743800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2132700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2157100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1494100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1247600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1251700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1271400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1311900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>938100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>974500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>941500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1013900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>849200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>872200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>806500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>817100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>777200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>712300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1016700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1017400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>562200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>568100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1020200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>396900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>643100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>493700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>634000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>410400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>577200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>547000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>711300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>433700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>520700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>467500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>624400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>289800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>310000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2514700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2364100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2290100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2190100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2134300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2077700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2042700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2002700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2005700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>175000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>173900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>172800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>169300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>167200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>164000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>159000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>155400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>154800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,67 +3957,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5507400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5125300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4984900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4915300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4648700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3722100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3937500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3767800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3951600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1523400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1725600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1661400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1894500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1450100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1557000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1433000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1596900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1221700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,67 +4291,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4307900</v>
+      </c>
+      <c r="E72" s="3">
         <v>4187100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4097900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3953800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3655800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3612800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3510100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3429500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3252400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3213900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3115000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3036000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2866500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2829200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2753300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2695600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2569500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2540400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2448300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,67 +4539,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1852300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1923800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1875900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1695700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1353700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1567100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1491800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1544900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1485600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1561800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1495300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1406000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1313200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1418700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1371400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1382600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1379500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1453200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1464700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E80" s="2">
         <v>44191</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>181400</v>
+      </c>
+      <c r="E81" s="3">
         <v>135900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>190600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>338700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>83800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>144200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>122100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>219200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>76800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>136900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>116800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>207300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>71400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>109700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>91900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>160600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>60300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>123600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,67 +4818,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E83" s="3">
         <v>58500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>54700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>52500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>51400</v>
       </c>
       <c r="H83" s="3">
         <v>51400</v>
       </c>
       <c r="I83" s="3">
+        <v>51400</v>
+      </c>
+      <c r="J83" s="3">
         <v>49800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>49000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>45800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>46000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>45000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>43600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>42800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>43100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>41900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>41000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>39700</v>
       </c>
       <c r="T83" s="3">
         <v>39700</v>
       </c>
       <c r="U83" s="3">
+        <v>39700</v>
+      </c>
+      <c r="V83" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E89" s="3">
         <v>389500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>909200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>83900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>397400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>65500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>361900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>341000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>79400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>295900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-21900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>290500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>113500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>369200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-141700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>376700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,67 +5276,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-132700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-74700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-57000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-29600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-73100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-60800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-54800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-84800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-77000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-71600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-45100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-98400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-55400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-61700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-34900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-284900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-132000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-74200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-56700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-72900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-59100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-54500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-28400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-84700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-75300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-71300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-45100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-96800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-55300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-51000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-34900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-202500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,67 +5548,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-46600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-46500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-40600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-40800</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-41500</v>
       </c>
       <c r="I96" s="3">
         <v>-41500</v>
       </c>
       <c r="J96" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-42100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-37600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-37900</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-37800</v>
       </c>
       <c r="N96" s="3">
         <v>-37800</v>
       </c>
       <c r="O96" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="P96" s="3">
         <v>-33600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-33900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-34100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-34600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-31300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-31400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,67 +5794,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-268400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-27700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-32000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-107700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>322600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-322900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-27700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-305600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>57400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-241300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-287000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>90200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-154600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-55900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-323100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>195300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-164200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5669,63 +5918,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-191800</v>
+      </c>
+      <c r="E102" s="3">
         <v>229800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-94400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>744900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>377200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-21400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-62400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>23300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>39100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>18800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-95600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>TSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,294 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E7" s="2">
         <v>44282</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44191</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3601600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2792300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2878300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2606600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3176300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1959200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2191800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1984100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2353800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1822200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2133300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1881600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2213200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1682900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1952800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1721700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2017800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1564100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1916500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1542700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2314100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1808600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1882700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1658600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2019500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1297900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1450000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1289900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1533000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1207200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1416900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1228500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1443800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1119300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1284200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1121200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1313100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1045900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1270300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1007400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1287500</v>
+      </c>
+      <c r="E10" s="3">
         <v>983700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>995600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>948000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1156800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>661300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>741800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>694200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>820800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>615000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>716400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>653100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>769400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>563600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>668600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>704700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>518200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>646200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>535300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,8 +975,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1024,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,19 +1103,22 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>69000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1115,8 +1135,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1148,70 +1168,76 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E15" s="3">
         <v>60100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>58500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>54700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>52500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>51400</v>
       </c>
       <c r="I15" s="3">
         <v>51400</v>
       </c>
       <c r="J15" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K15" s="3">
         <v>49800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>49000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>45800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>46000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>45000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>43600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>42800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>43100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>41900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>41000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>39700</v>
       </c>
       <c r="U15" s="3">
         <v>39700</v>
       </c>
       <c r="V15" s="3">
+        <v>39700</v>
+      </c>
+      <c r="W15" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3115700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2561800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2693800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2354400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2728600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1846700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2001300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1822300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2066200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1718800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1952900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1728500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1939800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1588200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1769000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1573500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1759800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1467700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1721900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1400700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>485900</v>
+      </c>
+      <c r="E18" s="3">
         <v>230500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>184500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>252200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>447700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>112600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>190500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>161800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>287600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>103400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>180400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>153100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>273400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>94700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>183800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>148200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>258000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>96400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>194600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,8 +1412,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1418,11 +1452,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1441,256 +1475,271 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>550700</v>
+      </c>
+      <c r="E21" s="3">
         <v>290600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>243000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>306800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>164000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>241800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>211600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>336600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>149200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>226300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>198200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>317100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>137600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>227000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>190200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>299000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>136100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>234300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>177700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E22" s="3">
         <v>7200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>479200</v>
+      </c>
+      <c r="E23" s="3">
         <v>223300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>176400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>245000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>439300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>107500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>185600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>156900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>282400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>98500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>175900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>148700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>268500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>90300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>179600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>144500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>254800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>93600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>193000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>109200</v>
+      </c>
+      <c r="E24" s="3">
         <v>42000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>40500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>54400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>41400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>34800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>63200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>39100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>31900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>61200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>65000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>52600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>94200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>33300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>69400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E26" s="3">
         <v>181400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>135900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>190600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>338700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>83800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>144200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>122100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>219200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>76800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>136900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>116800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>207300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>71400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>114600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>91900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>160600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>60300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>123600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E27" s="3">
         <v>181400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>135900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>190600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>338700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>83800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>144200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>122100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>219200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>76800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>136900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>116800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>207300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>71400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>114600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>91900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>160600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>60300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>123600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1963,17 +2024,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1981,11 +2042,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-4900</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,8 +2190,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2162,11 +2232,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2185,70 +2255,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E33" s="3">
         <v>181400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>135900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>190600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>338700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>83800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>144200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>122100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>219200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>76800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>136900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>116800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>207300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>71400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>109700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>91900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>160600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>60300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>123600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E35" s="3">
         <v>181400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>135900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>190600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>338700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>83800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>144200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>122100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>219200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>76800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>136900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>116800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>207300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>71400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>109700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>91900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>160600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>60300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>123600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E38" s="2">
         <v>44282</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44191</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,70 +2572,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1412000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1149900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1341800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1112000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1206400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>461500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>84200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>82600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>104000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>102200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>86300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>71300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>70000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>132400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>109100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>70000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>67800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>72700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>53900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2610,8 +2700,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2621,12 +2714,12 @@
       <c r="E43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3">
         <v>7800</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -2634,25 +2727,25 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>5600</v>
       </c>
       <c r="L43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="M43" s="3">
         <v>4800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>23700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5100</v>
-      </c>
-      <c r="P43" s="3">
-        <v>4800</v>
       </c>
       <c r="Q43" s="3">
         <v>4800</v>
@@ -2661,205 +2754,217 @@
         <v>4800</v>
       </c>
       <c r="S43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="T43" s="3">
         <v>4100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1992800</v>
+      </c>
+      <c r="E44" s="3">
         <v>2084700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1783300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1915000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1688500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1905900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1602800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1812800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1733200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1881300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1589500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1737300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1632300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1760100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1453200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1591600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1468300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1657800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1369700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1489900</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>162300</v>
+      </c>
+      <c r="E45" s="3">
         <v>146200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>133700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>136100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>135200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>112900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>104500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>95100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>90700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>114400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>109500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>103400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>86800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>88300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>75600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>90400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>86500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>90600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3567100</v>
+      </c>
+      <c r="E46" s="3">
         <v>3380800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3258700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3171000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3030100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2480200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1787900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2005500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1937800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2079100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1794400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1941700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1810700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1984100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1655400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1742000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1630500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1824300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1517800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1629800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2920,70 +3025,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4008900</v>
+      </c>
+      <c r="E48" s="3">
         <v>3876400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3672800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3532800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3416800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3371800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3352800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3276300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3226700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3207800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1134500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1112000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1081500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1050400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1044500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>996800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>982400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>957000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>962300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>923200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2994,7 +3105,7 @@
         <v>55500</v>
       </c>
       <c r="F49" s="3">
-        <v>124500</v>
+        <v>55500</v>
       </c>
       <c r="G49" s="3">
         <v>124500</v>
@@ -3033,7 +3144,7 @@
         <v>124500</v>
       </c>
       <c r="S49" s="3">
-        <v>125700</v>
+        <v>124500</v>
       </c>
       <c r="T49" s="3">
         <v>125700</v>
@@ -3042,10 +3153,13 @@
         <v>125700</v>
       </c>
       <c r="V49" s="3">
+        <v>125700</v>
+      </c>
+      <c r="W49" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,70 +3285,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E52" s="3">
         <v>46900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>62100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>32500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>39600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>25900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>24100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>23000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>23700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>25800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>31900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>42700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>50600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>48800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>44400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>65000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>77000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>69400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>69100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,70 +3415,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7687900</v>
+      </c>
+      <c r="E54" s="3">
         <v>7359700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7049100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6860800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6611100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6002400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5289300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5429300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5312700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5437200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3085300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3220900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3067400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3207800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2868800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2928400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2815600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2976400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2674900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2635700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,380 +3532,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1221900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1181900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>976100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1056900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1003700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>887900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>643000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>679800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>681500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>785100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>620000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>683700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>649700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>732500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>576600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>609900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>510800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>563500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>519500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>484000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E58" s="3">
         <v>4700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>384400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>384300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>34200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>34000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>33900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>26200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>24900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>29900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>30000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>28700</v>
-      </c>
-      <c r="P58" s="3">
-        <v>28500</v>
       </c>
       <c r="Q58" s="3">
         <v>28500</v>
       </c>
       <c r="R58" s="3">
+        <v>28500</v>
+      </c>
+      <c r="S58" s="3">
         <v>26000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>23400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>13900</v>
-      </c>
-      <c r="U58" s="3">
-        <v>11300</v>
       </c>
       <c r="V58" s="3">
         <v>11300</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>856800</v>
+      </c>
+      <c r="E59" s="3">
         <v>789300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>763100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>691300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>769000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>572000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>570500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>538000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>563600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>501900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>288200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>260900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>263100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>252900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>244100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>236300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>272300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>239700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>246400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2083500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1975900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1743800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2132700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2157100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1494100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1247600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1251700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1271400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1311900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>938100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>974500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>941500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1013900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>849200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>872200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>806500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>817100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>777200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>712300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1016000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1016700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1017400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>562200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>568100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1020200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>396900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>643100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>493700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>634000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>410400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>577200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>547000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>711300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>433700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>520700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>467500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>624400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>289800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>310000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2608200</v>
+      </c>
+      <c r="E62" s="3">
         <v>2514700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2364100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2290100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2190100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2134300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2077700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2042700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2002700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2005700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>175000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>173900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>172800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>169300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>167200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>164000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>159000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>155400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>154800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5707800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5507400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5125300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4984900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4915300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4648700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3722100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3937500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3767800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3951600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1523400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1725600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1661400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1894500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1450100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1557000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1433000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1596900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1221700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,70 +4465,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4618000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4307900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4187100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4097900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3953800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3655800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3612800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3510100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3429500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3252400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3213900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3115000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3036000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2866500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2829200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2753300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2695600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2569500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2540400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2448300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,70 +4725,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1980100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1852300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1923800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1875900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1695700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1353700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1567100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1491800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1544900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1485600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1561800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1495300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1406000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1313200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1418700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1371400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1382600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1379500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1453200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1464700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E80" s="2">
         <v>44282</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44191</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E81" s="3">
         <v>181400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>135900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>190600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>338700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>83800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>144200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>122100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>219200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>76800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>136900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>116800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>207300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>71400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>109700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>91900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>160600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>60300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>123600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,70 +5017,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E83" s="3">
         <v>60100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>58500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>54700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>52500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>51400</v>
       </c>
       <c r="I83" s="3">
         <v>51400</v>
       </c>
       <c r="J83" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K83" s="3">
         <v>49800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>49000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>45800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>46000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>45000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>43600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>42800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>43100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>41900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>41000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>39700</v>
       </c>
       <c r="U83" s="3">
         <v>39700</v>
       </c>
       <c r="V83" s="3">
+        <v>39700</v>
+      </c>
+      <c r="W83" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>631800</v>
+      </c>
+      <c r="E89" s="3">
         <v>177100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>389500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>909200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>83900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>397400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>65500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>361900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>341000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>79400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>295900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>290500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>113500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>369200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-141700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>376700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-115300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-132700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-74700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-57000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-29600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-73100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-60800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-54800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-28800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-84800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-77000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-71600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-45100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-98400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-55400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-61700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-34900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-284900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-115200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-132000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-74200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-56700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-72900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-59100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-54500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-28400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-84700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-75300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-71300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-45100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-96800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-55300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-51000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-34900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-202500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,70 +5782,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-59900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-60600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-46600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-46500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-40600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-40800</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-41500</v>
       </c>
       <c r="J96" s="3">
         <v>-41500</v>
       </c>
       <c r="K96" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="L96" s="3">
         <v>-42100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-37600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-37900</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-37800</v>
       </c>
       <c r="O96" s="3">
         <v>-37800</v>
       </c>
       <c r="P96" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-33600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-33900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-34100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-34600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-31300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-31400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,70 +6040,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-254500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-268400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-27700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-32000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-107700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>322600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-322900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-27700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-305600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>57400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-241300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-287000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>90200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-154600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-55900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-323100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>195300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-164200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5921,66 +6170,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>262100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-191800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>229800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-94400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>744900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>377200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-21400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-62400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>23300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>39100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>18800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-95600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>TSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,307 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E7" s="2">
         <v>44373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44282</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44191</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3017900</v>
+      </c>
+      <c r="E8" s="3">
         <v>3601600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2792300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2878300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2606600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3176300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1959200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2191800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1984100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2353800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1822200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2133300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1881600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2213200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1682900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1952800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1721700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2017800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1564100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1916500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1542700</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1932600</v>
+      </c>
+      <c r="E9" s="3">
         <v>2314100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1808600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1882700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1658600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2019500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1297900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1450000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1289900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1533000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1207200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1416900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1228500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1443800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1119300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1284200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1121200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1313100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1045900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1270300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1007400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1085300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1287500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>983700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>995600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>948000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1156800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>661300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>741800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>694200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>820800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>615000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>716400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>653100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>769400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>563600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>668600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>600500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>704700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>518200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>646200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>535300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +989,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,8 +1123,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1117,11 +1137,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>69000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1138,8 +1158,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1171,73 +1191,79 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E15" s="3">
         <v>64900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>60100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>58500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>54700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>52500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>51400</v>
       </c>
       <c r="J15" s="3">
         <v>51400</v>
       </c>
       <c r="K15" s="3">
+        <v>51400</v>
+      </c>
+      <c r="L15" s="3">
         <v>49800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>49000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>45800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>46000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>45000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>43600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>42800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>43100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>41900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>41000</v>
-      </c>
-      <c r="U15" s="3">
-        <v>39700</v>
       </c>
       <c r="V15" s="3">
         <v>39700</v>
       </c>
       <c r="W15" s="3">
+        <v>39700</v>
+      </c>
+      <c r="X15" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2720700</v>
+      </c>
+      <c r="E17" s="3">
         <v>3115700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2561800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2693800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2354400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2728600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1846700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2001300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1822300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2066200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1718800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1952900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1728500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1939800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1588200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1769000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1573500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1759800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1467700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1721900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1400700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>297200</v>
+      </c>
+      <c r="E18" s="3">
         <v>485900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>230500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>184500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>252200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>447700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>112600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>190500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>161800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>287600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>103400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>180400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>153100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>273400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>94700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>183800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>148200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>258000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>96400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>194600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,8 +1446,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1455,11 +1489,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1478,268 +1512,283 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>367000</v>
+      </c>
+      <c r="E21" s="3">
         <v>550700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>290600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>243000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>306800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>164000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>241800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>211600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>336600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>149200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>226300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>198200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>317100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>137600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>227000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>190200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>299000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>136100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>234300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>177700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E22" s="3">
         <v>6700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>291100</v>
+      </c>
+      <c r="E23" s="3">
         <v>479200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>223300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>176400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>245000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>439300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>107500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>185600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>156900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>282400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>98500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>175900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>148700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>268500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>90300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>179600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>144500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>254800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>93600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>193000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E24" s="3">
         <v>109200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>42000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>40500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>54400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>23700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>41400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>34800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>63200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>39100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>31900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>61200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>65000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>52600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>94200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>33300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>69400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>224400</v>
+      </c>
+      <c r="E26" s="3">
         <v>370000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>181400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>135900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>190600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>338700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>83800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>144200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>122100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>219200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>76800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>136900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>116800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>207300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>71400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>114600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>91900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>160600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>60300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>123600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>224400</v>
+      </c>
+      <c r="E27" s="3">
         <v>370000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>181400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>135900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>190600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>338700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>83800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>144200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>122100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>219200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>76800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>136900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>116800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>207300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>71400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>114600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>91900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>160600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>60300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>123600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2027,17 +2088,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2045,11 +2106,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-4900</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2063,8 +2124,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,8 +2260,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2235,11 +2305,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2258,73 +2328,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>224400</v>
+      </c>
+      <c r="E33" s="3">
         <v>370000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>181400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>135900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>190600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>338700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>83800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>144200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>122100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>219200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>76800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>136900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>116800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>207300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>71400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>109700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>91900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>160600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>60300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>123600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>224400</v>
+      </c>
+      <c r="E35" s="3">
         <v>370000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>181400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>135900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>190600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>338700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>83800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>144200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>122100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>219200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>76800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>136900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>116800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>207300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>71400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>109700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>91900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>160600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>60300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>123600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E38" s="2">
         <v>44373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44282</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44191</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,73 +2659,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1111700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1412000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1149900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1341800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1112000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1206400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>461500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>84200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>82600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>104000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>102200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>86300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>71300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>70000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>132400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>109100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>70000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>67800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>72700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>53900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2703,13 +2793,16 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>6800</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>8</v>
@@ -2717,12 +2810,12 @@
       <c r="F43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3">
         <v>7800</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -2730,25 +2823,25 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>5600</v>
       </c>
       <c r="M43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="N43" s="3">
         <v>4800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>23700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5100</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>4800</v>
       </c>
       <c r="R43" s="3">
         <v>4800</v>
@@ -2757,214 +2850,226 @@
         <v>4800</v>
       </c>
       <c r="T43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="U43" s="3">
         <v>4100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2199800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1992800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2084700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1783300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1915000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1688500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1905900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1602800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1812800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1733200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1881300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1589500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1737300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1632300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1760100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1453200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1591600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1468300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1657800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1369700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1489900</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>149600</v>
+      </c>
+      <c r="E45" s="3">
         <v>162300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>146200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>133700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>136100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>135200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>112900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>104500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>95100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>90700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>114400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>109500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>103400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>86800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>88300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>75600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>90400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>86500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>90600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3467900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3567100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3380800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3258700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3171000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3030100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2480200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1787900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2005500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1937800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2079100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1794400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1941700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1810700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1984100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1655400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1742000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1630500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1824300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1517800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1629800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3028,73 +3133,79 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4167200</v>
+      </c>
+      <c r="E48" s="3">
         <v>4008900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3876400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3672800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3532800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3416800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3371800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3352800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3276300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3226700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3207800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1134500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1112000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1081500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1050400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1044500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>996800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>982400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>957000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>962300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>923200</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3108,7 +3219,7 @@
         <v>55500</v>
       </c>
       <c r="G49" s="3">
-        <v>124500</v>
+        <v>55500</v>
       </c>
       <c r="H49" s="3">
         <v>124500</v>
@@ -3147,7 +3258,7 @@
         <v>124500</v>
       </c>
       <c r="T49" s="3">
-        <v>125700</v>
+        <v>124500</v>
       </c>
       <c r="U49" s="3">
         <v>125700</v>
@@ -3156,10 +3267,13 @@
         <v>125700</v>
       </c>
       <c r="W49" s="3">
+        <v>125700</v>
+      </c>
+      <c r="X49" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,73 +3405,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E52" s="3">
         <v>56300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>46900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>62100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>32500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>39600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>25900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>24100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>23000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>23700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>25800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>31900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>42700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>50600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>48800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>44400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>65000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>77000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>69400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>69100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3541,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7745200</v>
+      </c>
+      <c r="E54" s="3">
         <v>7687900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7359700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7049100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6860800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6611100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6002400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5289300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5429300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5312700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5437200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3085300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3220900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3067400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3207800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2868800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2928400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2815600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2976400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2674900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2635700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,398 +3663,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1197800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1221900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1181900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>976100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1056900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1003700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>887900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>643000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>679800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>681500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>785100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>620000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>683700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>649700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>732500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>576600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>609900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>510800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>563500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>519500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>484000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E58" s="3">
         <v>4800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>384400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>384300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>34200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>34000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>33900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>26200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>24900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>29900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>30000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>28700</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>28500</v>
       </c>
       <c r="R58" s="3">
         <v>28500</v>
       </c>
       <c r="S58" s="3">
+        <v>28500</v>
+      </c>
+      <c r="T58" s="3">
         <v>26000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>23400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>13900</v>
-      </c>
-      <c r="V58" s="3">
-        <v>11300</v>
       </c>
       <c r="W58" s="3">
         <v>11300</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>844000</v>
+      </c>
+      <c r="E59" s="3">
         <v>856800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>789300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>763100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>691300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>769000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>572000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>570500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>538000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>563600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>501900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>288200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>260900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>263100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>252900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>244100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>236300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>272300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>239700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>246400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2046000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2083500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1975900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1743800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2132700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2157100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1494100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1247600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1251700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1271400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1311900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>938100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>974500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>941500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1013900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>849200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>872200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>806500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>817100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>777200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>712300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1015900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1016000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1016700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1017400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>562200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>568100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1020200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>396900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>643100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>493700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>634000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>410400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>577200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>547000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>711300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>433700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>520700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>467500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>624400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>289800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>310000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2662500</v>
+      </c>
+      <c r="E62" s="3">
         <v>2608200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2514700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2364100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2290100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2190100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2134300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2077700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2042700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2002700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2005700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>175000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>173900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>172800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>169300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>167200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>164000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>159000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>155400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>154800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4273,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5724400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5707800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5507400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5125300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4984900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4915300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4648700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3722100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3937500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3767800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3951600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1523400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1725600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1661400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1894500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1450100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1557000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1433000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1596900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1221700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +4639,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4783100</v>
+      </c>
+      <c r="E72" s="3">
         <v>4618000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4307900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4187100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4097900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3953800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3655800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3612800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3510100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3429500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3252400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3213900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3115000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3036000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2866500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2829200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2753300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2695600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2569500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2540400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2448300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +4911,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2020800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1980100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1852300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1923800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1875900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1695700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1353700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1567100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1491800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1544900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1485600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1561800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1495300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1406000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1313200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1418700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1371400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1382600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1379500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1453200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1464700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E80" s="2">
         <v>44373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44282</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44191</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>224400</v>
+      </c>
+      <c r="E81" s="3">
         <v>370000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>181400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>135900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>190600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>338700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>83800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>144200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>122100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>219200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>76800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>136900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>116800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>207300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>71400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>109700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>91900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>160600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>60300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>123600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,73 +5216,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E83" s="3">
         <v>64900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>60100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>58500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>54700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>52500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>51400</v>
       </c>
       <c r="J83" s="3">
         <v>51400</v>
       </c>
       <c r="K83" s="3">
+        <v>51400</v>
+      </c>
+      <c r="L83" s="3">
         <v>49800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>49000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>45800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>46000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>45000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>43600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>42800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>43100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>41900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>41000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>39700</v>
       </c>
       <c r="V83" s="3">
         <v>39700</v>
       </c>
       <c r="W83" s="3">
+        <v>39700</v>
+      </c>
+      <c r="X83" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E89" s="3">
         <v>631800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>177100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>389500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>909200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>83900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>397400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>65500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>361900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>341000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>79400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>295900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-21900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>290500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>113500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>369200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-141700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>376700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-166300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-115300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-132700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-74700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-57000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-29600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-73100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-60800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-54800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-28800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-84800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-77000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-71600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-45100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-98400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-55400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-61700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-34900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-284900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-165600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-115200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-132000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-74200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-56700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-29300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-72900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-59100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-54500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-84700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-75300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-71300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-45100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-96800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-55300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-51000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-34900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-202500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,73 +6016,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-59400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-59900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-60600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-46600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-46500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-40600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-40800</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-41500</v>
       </c>
       <c r="K96" s="3">
         <v>-41500</v>
       </c>
       <c r="L96" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="M96" s="3">
         <v>-42100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-37600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-37900</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-37800</v>
       </c>
       <c r="P96" s="3">
         <v>-37800</v>
       </c>
       <c r="Q96" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="R96" s="3">
         <v>-33600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-33900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-34100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-34600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-31300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-31400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,73 +6286,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-197700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-254500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-268400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-27700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-32000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-107700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>322600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-322900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-27700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-305600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>57400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-241300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-287000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>90200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-154600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-55900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-323100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>195300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-164200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6173,69 +6422,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300300</v>
+      </c>
+      <c r="E102" s="3">
         <v>262100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-191800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>229800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-94400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>744900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>377200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>15000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-62400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>23300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>39100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>18800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-95600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>TSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,319 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E7" s="2">
         <v>44464</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44282</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44191</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3319300</v>
+      </c>
+      <c r="E8" s="3">
         <v>3017900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3601600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2792300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2878300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2606600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3176300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1959200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2191800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1984100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2353800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1822200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2133300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1881600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2213200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1682900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1952800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1721700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2017800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1564100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1916500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1542700</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2198700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1932600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2314100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1808600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1882700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1658600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2019500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1297900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1450000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1289900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1533000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1207200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1416900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1228500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1443800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1119300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1284200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1121200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1313100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1045900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1270300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1007400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1120600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1085300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1287500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>983700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>995600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>948000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1156800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>661300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>741800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>694200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>820800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>615000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>716400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>653100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>769400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>563600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>668600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>600500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>704700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>518200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>646200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>535300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1002,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,13 +1142,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1140,11 +1159,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>69000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1161,8 +1180,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1194,76 +1213,82 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E15" s="3">
         <v>69800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>64900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>60100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>58500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>54700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>52500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>51400</v>
       </c>
       <c r="K15" s="3">
         <v>51400</v>
       </c>
       <c r="L15" s="3">
+        <v>51400</v>
+      </c>
+      <c r="M15" s="3">
         <v>49800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>49000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>45800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>46000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>45000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>43600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>42800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>43100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>41900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>41000</v>
-      </c>
-      <c r="V15" s="3">
-        <v>39700</v>
       </c>
       <c r="W15" s="3">
         <v>39700</v>
       </c>
       <c r="X15" s="3">
+        <v>39700</v>
+      </c>
+      <c r="Y15" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3026200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2720700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3115700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2561800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2693800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2354400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2728600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1846700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2001300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1822300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2066200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1718800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1952900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1728500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1939800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1588200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1769000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1573500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1759800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1467700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1721900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1400700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>293100</v>
+      </c>
+      <c r="E18" s="3">
         <v>297200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>485900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>230500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>184500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>252200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>447700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>112600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>190500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>161800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>287600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>103400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>180400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>153100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>273400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>94700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>183800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>148200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>258000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>96400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>194600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,8 +1479,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1492,11 +1525,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1515,280 +1548,295 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>368500</v>
+      </c>
+      <c r="E21" s="3">
         <v>367000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>550700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>290600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>243000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>306800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>164000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>241800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>211600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>336600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>149200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>226300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>198200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>317100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>137600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>227000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>190200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>299000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>136100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>234300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>177700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E22" s="3">
         <v>6100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>286500</v>
+      </c>
+      <c r="E23" s="3">
         <v>291100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>479200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>223300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>176400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>245000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>439300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>107500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>185600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>156900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>282400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>98500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>175900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>148700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>268500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>90300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>179600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>144500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>254800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>93600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>193000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E24" s="3">
         <v>66700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>109200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>42000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>40500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>54400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>23700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>41400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>34800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>63200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>39100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>31900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>61200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>65000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>52600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>94200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>33300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>69400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>221300</v>
+      </c>
+      <c r="E26" s="3">
         <v>224400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>370000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>181400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>135900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>190600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>338700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>83800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>144200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>122100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>219200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>76800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>136900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>116800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>207300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>71400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>114600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>91900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>160600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>60300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>123600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>221300</v>
+      </c>
+      <c r="E27" s="3">
         <v>224400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>370000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>181400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>135900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>190600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>338700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>83800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>144200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>122100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>219200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>76800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>136900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>116800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>207300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>71400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>114600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>91900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>160600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>60300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>123600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2091,17 +2151,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2109,11 +2169,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-4900</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2127,8 +2187,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,8 +2329,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2308,11 +2377,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2331,76 +2400,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>221300</v>
+      </c>
+      <c r="E33" s="3">
         <v>224400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>370000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>181400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>135900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>190600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>338700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>83800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>144200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>122100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>219200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>76800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>136900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>116800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>207300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>71400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>109700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>91900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>160600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>60300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>123600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>221300</v>
+      </c>
+      <c r="E35" s="3">
         <v>224400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>370000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>181400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>135900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>190600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>338700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>83800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>144200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>122100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>219200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>76800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>136900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>116800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>207300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>71400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>109700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>91900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>160600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>60300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>123600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E38" s="2">
         <v>44464</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44282</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44191</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,76 +2745,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>878000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1111700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1412000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1149900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1341800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1112000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1206400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>461500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>84200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>82600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>104000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>102200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>86300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>71300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>70000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>132400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>109100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>70000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>67800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>72700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>53900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2796,16 +2885,19 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E43" s="3">
         <v>6800</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>8</v>
@@ -2813,12 +2905,12 @@
       <c r="G43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3">
         <v>7800</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
@@ -2826,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>5600</v>
       </c>
       <c r="N43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="O43" s="3">
         <v>4800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>23700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>4800</v>
       </c>
       <c r="S43" s="3">
         <v>4800</v>
@@ -2853,223 +2945,235 @@
         <v>4800</v>
       </c>
       <c r="U43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="V43" s="3">
         <v>4100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2191200</v>
+      </c>
+      <c r="E44" s="3">
         <v>2199800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1992800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2084700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1783300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1915000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1688500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1905900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1602800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1812800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1733200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1881300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1589500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1737300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1632300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1760100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1453200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1591600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1468300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1657800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1369700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1489900</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>164100</v>
+      </c>
+      <c r="E45" s="3">
         <v>149600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>162300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>146200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>133700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>136100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>135200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>112900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>104500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>95100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>90700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>114400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>109500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>103400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>86800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>88300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>75600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>90400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>86500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>90600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3250400</v>
+      </c>
+      <c r="E46" s="3">
         <v>3467900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3567100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3380800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3258700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3171000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3030100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2480200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1787900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2005500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1937800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2079100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1794400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1941700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1810700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1984100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1655400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1742000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1630500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1824300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1517800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1629800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3136,76 +3240,82 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4403700</v>
+      </c>
+      <c r="E48" s="3">
         <v>4167200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4008900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3876400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3672800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3532800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3416800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3371800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3352800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3276300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3226700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3207800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1134500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1112000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1081500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1050400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1044500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>996800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>982400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>957000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>962300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>923200</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3222,7 +3332,7 @@
         <v>55500</v>
       </c>
       <c r="H49" s="3">
-        <v>124500</v>
+        <v>55500</v>
       </c>
       <c r="I49" s="3">
         <v>124500</v>
@@ -3261,7 +3371,7 @@
         <v>124500</v>
       </c>
       <c r="U49" s="3">
-        <v>125700</v>
+        <v>124500</v>
       </c>
       <c r="V49" s="3">
         <v>125700</v>
@@ -3270,10 +3380,13 @@
         <v>125700</v>
       </c>
       <c r="X49" s="3">
+        <v>125700</v>
+      </c>
+      <c r="Y49" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,76 +3524,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E52" s="3">
         <v>54600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>56300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>46900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>62100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>32500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>39600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>25900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>23000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>23700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>25800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>31900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>42700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>50600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>48800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>44400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>65000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>77000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>69400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>69100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7767500</v>
+      </c>
+      <c r="E54" s="3">
         <v>7745200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7687900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7359700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7049100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6860800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6611100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6002400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5289300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5429300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5312700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5437200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3085300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3220900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3067400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3207800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2868800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2928400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2815600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2976400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2674900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2635700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,416 +3793,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1155600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1197800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1221900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1181900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>976100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1056900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1003700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>887900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>643000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>679800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>681500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>785100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>620000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>683700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>649700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>732500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>576600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>609900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>510800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>563500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>519500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>484000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E58" s="3">
         <v>4200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>384400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>384300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>34200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>34000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>33900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>26200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>24900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>29900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>30000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>28700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>28500</v>
       </c>
       <c r="S58" s="3">
         <v>28500</v>
       </c>
       <c r="T58" s="3">
+        <v>28500</v>
+      </c>
+      <c r="U58" s="3">
         <v>26000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>23400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>13900</v>
-      </c>
-      <c r="W58" s="3">
-        <v>11300</v>
       </c>
       <c r="X58" s="3">
         <v>11300</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>905300</v>
+      </c>
+      <c r="E59" s="3">
         <v>844000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>856800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>789300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>763100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>691300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>769000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>572000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>570500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>538000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>563600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>501900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>288200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>260900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>263100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>252900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>244100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>236300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>272300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>239700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>246400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2064800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2046000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2083500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1975900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1743800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2132700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2157100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1494100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1247600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1251700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1271400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1311900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>938100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>974500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>941500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1013900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>849200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>872200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>806500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>817100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>777200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>712300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1019200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1015900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1016000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1016700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1017400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>562200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>568100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1020200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>396900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>643100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>493700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>634000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>410400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>577200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>547000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>711300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>433700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>520700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>467500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>624400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>289800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>310000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2680700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2662500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2608200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2514700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2364100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2290100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2190100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2134300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2077700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2042700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2002700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2005700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>175000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>173900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>172800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>169300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>167200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>164000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>159000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>155400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>154800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5764800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5724400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5707800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5507400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5125300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4984900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4915300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4648700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3722100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3937500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3767800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3951600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1523400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1725600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1661400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1894500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1450100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1557000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1433000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1596900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1221700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4945200</v>
+      </c>
+      <c r="E72" s="3">
         <v>4783100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4618000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4307900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4187100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4097900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3953800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3655800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3612800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3510100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3429500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3252400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3213900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3115000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3036000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2866500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2829200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2753300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2695600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2569500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2540400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2448300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2002700</v>
+      </c>
+      <c r="E76" s="3">
         <v>2020800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1980100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1852300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1923800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1875900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1695700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1353700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1567100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1491800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1544900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1485600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1561800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1495300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1406000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1313200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1418700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1371400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1382600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1379500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1453200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1464700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E80" s="2">
         <v>44464</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44282</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44191</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>221300</v>
+      </c>
+      <c r="E81" s="3">
         <v>224400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>370000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>181400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>135900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>190600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>338700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>83800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>144200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>122100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>219200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>76800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>136900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>116800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>207300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>71400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>109700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>91900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>160600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>60300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>123600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,76 +5414,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E83" s="3">
         <v>69800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>64900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>60100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>58500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>54700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>52500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>51400</v>
       </c>
       <c r="K83" s="3">
         <v>51400</v>
       </c>
       <c r="L83" s="3">
+        <v>51400</v>
+      </c>
+      <c r="M83" s="3">
         <v>49800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>49000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>45800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>46000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>45000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>43600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>42800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>43100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>41900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>41000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>39700</v>
       </c>
       <c r="W83" s="3">
         <v>39700</v>
       </c>
       <c r="X83" s="3">
+        <v>39700</v>
+      </c>
+      <c r="Y83" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>266900</v>
+      </c>
+      <c r="E89" s="3">
         <v>62900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>631800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>177100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>389500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>909200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>83900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>397400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>65500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>361900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>341000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>79400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>295900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-21900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>290500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>113500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>369200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-141700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>376700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-246100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-166300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-115300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-132700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-74700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-57000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-29600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-73100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-60800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-54800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-28800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-84800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-77000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-71600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-45100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-98400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-55400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-61700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-34900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-284900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-246100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-165600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-115200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-132000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-74200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-56700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-72900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-59100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-54500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-28400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-84700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-75300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-71300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-45100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-96800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-55300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-51000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-34900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-202500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,76 +6249,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-59400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-59900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-60600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-46600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-46500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-40600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-40800</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-41500</v>
       </c>
       <c r="L96" s="3">
         <v>-41500</v>
       </c>
       <c r="M96" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="N96" s="3">
         <v>-42100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-37600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-37900</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-37800</v>
       </c>
       <c r="Q96" s="3">
         <v>-37800</v>
       </c>
       <c r="R96" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="S96" s="3">
         <v>-33600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-33900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-34100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-34600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-31300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-31400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,76 +6531,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-254500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-197700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-254500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-268400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-27700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-32000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-107700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>322600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-322900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-27700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-305600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>57400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-241300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-287000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>90200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-154600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-55900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-323100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>195300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-164200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6425,72 +6673,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-233700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>262100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-191800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>229800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-94400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>744900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>377200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-21400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>15900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>15000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-62400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>23300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>39100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>18800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-95600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>TSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,332 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44646</v>
+      </c>
+      <c r="E7" s="2">
         <v>44555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44464</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44282</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44191</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3024100</v>
+      </c>
+      <c r="E8" s="3">
         <v>3319300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3017900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3601600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2792300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2878300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2606600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3176300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1959200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2191800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1984100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2353800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1822200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2133300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1881600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2213200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1682900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1952800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1721700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2017800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1564100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1916500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1542700</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1967600</v>
+      </c>
+      <c r="E9" s="3">
         <v>2198700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1932600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2314100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1808600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1882700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1658600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2019500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1297900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1450000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1289900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1533000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1207200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1416900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1228500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1443800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1119300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1284200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1121200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1313100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1045900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1270300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1007400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1056500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1120600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1085300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1287500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>983700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>995600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>948000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1156800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>661300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>741800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>694200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>820800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>615000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>716400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>653100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>769400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>563600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>668600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>600500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>704700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>518200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>646200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>535300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1016,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1088,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,16 +1162,19 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1162,11 +1182,11 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>69000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1183,8 +1203,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1216,79 +1236,85 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E15" s="3">
         <v>75400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>69800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>64900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>60100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>58500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>54700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>52500</v>
-      </c>
-      <c r="K15" s="3">
-        <v>51400</v>
       </c>
       <c r="L15" s="3">
         <v>51400</v>
       </c>
       <c r="M15" s="3">
+        <v>51400</v>
+      </c>
+      <c r="N15" s="3">
         <v>49800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>49000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>45800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>46000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>45000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>43600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>42800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>43100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>41900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>41000</v>
-      </c>
-      <c r="W15" s="3">
-        <v>39700</v>
       </c>
       <c r="X15" s="3">
         <v>39700</v>
       </c>
       <c r="Y15" s="3">
+        <v>39700</v>
+      </c>
+      <c r="Z15" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1337,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2779800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3026200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2720700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3115700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2561800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2693800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2354400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2728600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1846700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2001300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1822300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2066200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1718800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1952900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1728500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1939800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1588200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1769000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1573500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1759800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1467700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1721900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1400700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>244300</v>
+      </c>
+      <c r="E18" s="3">
         <v>293100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>297200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>485900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>230500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>184500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>252200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>447700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>112600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>190500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>161800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>287600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>103400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>180400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>153100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>273400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>94700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>183800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>148200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>258000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>96400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>194600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,8 +1513,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1528,11 +1562,11 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1551,292 +1585,307 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>321900</v>
+      </c>
+      <c r="E21" s="3">
         <v>368500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>367000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>550700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>290600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>243000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>306800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>164000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>241800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>211600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>336600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>149200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>226300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>198200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>317100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>137600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>227000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>190200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>299000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>136100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>234300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>177700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E22" s="3">
         <v>6500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>237200</v>
+      </c>
+      <c r="E23" s="3">
         <v>286500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>291100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>479200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>223300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>176400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>245000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>439300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>107500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>185600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>156900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>282400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>98500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>175900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>148700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>268500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>90300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>179600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>144500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>254800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>93600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>193000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E24" s="3">
         <v>65200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>66700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>109200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>42000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>40500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>54400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>41400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>34800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>63200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>39100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>31900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>61200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>65000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>52600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>94200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>33300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>69400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1955,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>187200</v>
+      </c>
+      <c r="E26" s="3">
         <v>221300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>224400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>370000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>181400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>135900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>190600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>338700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>83800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>144200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>122100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>219200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>76800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>136900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>116800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>207300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>71400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>114600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>91900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>160600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>60300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>123600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>187200</v>
+      </c>
+      <c r="E27" s="3">
         <v>221300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>224400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>370000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>181400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>135900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>190600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>338700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>83800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>144200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>122100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>219200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>76800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>136900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>116800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>207300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>71400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>114600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>91900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>160600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>60300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>123600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,8 +2177,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2154,17 +2215,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2172,11 +2233,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-4900</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2190,8 +2251,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,8 +2399,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2380,11 +2450,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2403,79 +2473,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>187200</v>
+      </c>
+      <c r="E33" s="3">
         <v>221300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>224400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>370000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>181400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>135900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>190600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>338700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>83800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>144200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>122100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>219200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>76800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>136900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>116800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>207300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>71400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>109700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>91900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>160600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>60300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>123600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2621,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>187200</v>
+      </c>
+      <c r="E35" s="3">
         <v>221300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>224400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>370000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>181400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>135900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>190600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>338700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>83800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>144200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>122100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>219200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>76800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>136900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>116800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>207300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>71400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>109700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>91900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>160600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>60300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>123600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44646</v>
+      </c>
+      <c r="E38" s="2">
         <v>44555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44464</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44282</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44191</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,79 +2832,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>405400</v>
+      </c>
+      <c r="E41" s="3">
         <v>878000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1111700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1412000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1149900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1341800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1112000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1206400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>461500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>84200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>82600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>104000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>102200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>86300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>71300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>70000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>132400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>109100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>70000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>67800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>72700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>53900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2888,19 +2978,22 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E43" s="3">
         <v>17100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6800</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
@@ -2908,12 +3001,12 @@
       <c r="H43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3">
         <v>7800</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -2921,25 +3014,25 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>5600</v>
       </c>
       <c r="O43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="P43" s="3">
         <v>4800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>23700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5100</v>
-      </c>
-      <c r="S43" s="3">
-        <v>4800</v>
       </c>
       <c r="T43" s="3">
         <v>4800</v>
@@ -2948,232 +3041,244 @@
         <v>4800</v>
       </c>
       <c r="V43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="W43" s="3">
         <v>4100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2568200</v>
+      </c>
+      <c r="E44" s="3">
         <v>2191200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2199800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1992800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2084700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1783300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1915000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1688500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1905900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1602800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1812800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1733200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1881300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1589500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1737300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1632300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1760100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1453200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1591600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1468300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1657800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1369700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1489900</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>185600</v>
+      </c>
+      <c r="E45" s="3">
         <v>164100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>149600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>162300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>146200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>133700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>136100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>135200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>112900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>104500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>95100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>90700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>114400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>109500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>103400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>86800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>88300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>75600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>90400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>86500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>90600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3168300</v>
+      </c>
+      <c r="E46" s="3">
         <v>3250400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3467900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3567100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3380800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3258700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3171000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3030100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2480200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1787900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2005500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1937800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2079100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1794400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1941700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1810700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1984100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1655400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1742000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1630500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1824300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1517800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1629800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3243,79 +3348,85 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4399800</v>
+      </c>
+      <c r="E48" s="3">
         <v>4403700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4167200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4008900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3876400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3672800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3532800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3416800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3371800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3352800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3276300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3226700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3207800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1134500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1112000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1081500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1050400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1044500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>996800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>982400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>957000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>962300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>923200</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3335,7 +3446,7 @@
         <v>55500</v>
       </c>
       <c r="I49" s="3">
-        <v>124500</v>
+        <v>55500</v>
       </c>
       <c r="J49" s="3">
         <v>124500</v>
@@ -3374,7 +3485,7 @@
         <v>124500</v>
       </c>
       <c r="V49" s="3">
-        <v>125700</v>
+        <v>124500</v>
       </c>
       <c r="W49" s="3">
         <v>125700</v>
@@ -3383,10 +3494,13 @@
         <v>125700</v>
       </c>
       <c r="Y49" s="3">
+        <v>125700</v>
+      </c>
+      <c r="Z49" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,79 +3644,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E52" s="3">
         <v>57800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>54600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>56300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>46900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>62100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>32500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>39600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>24100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>23000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>23700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>25800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>31900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>42700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>50600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>48800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>44400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>65000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>77000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>69400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>69100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3792,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7686800</v>
+      </c>
+      <c r="E54" s="3">
         <v>7767500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7745200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7687900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7359700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7049100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6860800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6611100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6002400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5289300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5429300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5312700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5437200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3085300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3220900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3067400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3207800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2868800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2928400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2815600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2976400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2674900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2635700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,434 +3924,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1341600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1155600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1197800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1221900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1181900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>976100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1056900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1003700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>887900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>643000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>679800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>681500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>785100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>620000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>683700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>649700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>732500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>576600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>609900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>510800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>563500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>519500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>484000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>384400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>384300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>34200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>34000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>33900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>26200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>24900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>29900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>30000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>28700</v>
-      </c>
-      <c r="S58" s="3">
-        <v>28500</v>
       </c>
       <c r="T58" s="3">
         <v>28500</v>
       </c>
       <c r="U58" s="3">
+        <v>28500</v>
+      </c>
+      <c r="V58" s="3">
         <v>26000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>23400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>13900</v>
-      </c>
-      <c r="X58" s="3">
-        <v>11300</v>
       </c>
       <c r="Y58" s="3">
         <v>11300</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>854000</v>
+      </c>
+      <c r="E59" s="3">
         <v>905300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>844000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>856800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>789300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>763100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>691300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>769000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>572000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>570500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>538000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>563600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>501900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>288200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>260900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>263100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>252900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>244100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>236300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>272300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>239700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>246400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2199700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2064800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2046000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2083500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1975900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1743800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2132700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2157100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1494100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1247600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1251700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1271400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1311900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>938100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>974500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>941500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1013900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>849200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>872200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>806500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>817100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>777200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>712300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1023500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1019200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1015900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1016000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1016700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1017400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>562200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>568100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1020200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>396900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>643100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>493700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>634000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>410400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>577200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>547000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>711300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>433700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>520700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>467500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>624400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>289800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>310000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2673600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2680700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2662500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2608200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2514700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2364100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2290100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2190100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2134300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2077700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2042700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2002700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2005700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>175000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>173900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>172800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>169300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>167200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>164000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>159000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>155400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>154800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4588,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5896800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5764800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5724400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5707800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5507400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5125300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4984900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4915300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4648700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3722100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3937500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3767800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3951600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1523400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1725600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1661400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1894500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1450100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1557000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1433000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1596900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1221700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +4986,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5029000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4945200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4783100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4618000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4307900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4187100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4097900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3953800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3655800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3612800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3510100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3429500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3252400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3213900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3115000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3036000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2866500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2829200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2753300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2695600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2569500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2540400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2448300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5282,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1790000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2002700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2020800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1980100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1852300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1923800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1875900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1695700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1353700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1567100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1491800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1544900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1485600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1561800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1495300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1406000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1313200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1418700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1371400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1382600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1379500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1453200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1464700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5430,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44646</v>
+      </c>
+      <c r="E80" s="2">
         <v>44555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44464</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44282</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44191</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>187200</v>
+      </c>
+      <c r="E81" s="3">
         <v>221300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>224400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>370000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>181400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>135900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>190600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>338700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>83800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>144200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>122100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>219200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>76800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>136900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>116800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>207300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>71400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>109700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>91900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>160600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>60300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>123600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5613,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E83" s="3">
         <v>75400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>69800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>64900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>60100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>58500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>54700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>52500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>51400</v>
       </c>
       <c r="L83" s="3">
         <v>51400</v>
       </c>
       <c r="M83" s="3">
+        <v>51400</v>
+      </c>
+      <c r="N83" s="3">
         <v>49800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>49000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>45800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>46000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>45000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>43600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>42800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>43100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>41900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>41000</v>
-      </c>
-      <c r="W83" s="3">
-        <v>39700</v>
       </c>
       <c r="X83" s="3">
         <v>39700</v>
       </c>
       <c r="Y83" s="3">
+        <v>39700</v>
+      </c>
+      <c r="Z83" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6055,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E89" s="3">
         <v>266900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>62900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>631800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>177100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>389500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>909200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>83900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>397400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>65500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>361900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>341000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>79400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>295900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-21900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>290500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>113500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>369200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-141700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>376700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6159,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-112400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-246100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-166300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-115300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-132700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-74700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-57000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-29600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-73100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-60800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-54800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-28800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-84800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-77000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-71600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-45100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-98400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-55400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-61700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-34900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-284900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6379,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-112300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-246100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-165600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-115200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-132000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-74200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-56700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-72900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-59100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-54500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-28400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-84700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-75300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-71300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-45100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-96800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-55300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-51000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-34900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-202500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,79 +6483,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-103500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-59200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-59400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-59900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-60600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-46600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-46500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-40600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-40800</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-41500</v>
       </c>
       <c r="M96" s="3">
         <v>-41500</v>
       </c>
       <c r="N96" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="O96" s="3">
         <v>-42100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-37600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-37900</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-37800</v>
       </c>
       <c r="R96" s="3">
         <v>-37800</v>
       </c>
       <c r="S96" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="T96" s="3">
         <v>-33600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-33900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-34100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-34600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-31300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-31400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,79 +6777,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-419400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-254500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-197700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-254500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-268400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-27700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-32000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-107700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>322600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-322900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-27700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-305600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>57400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-241300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-287000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>90200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-154600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-55900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-323100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>195300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-164200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6676,75 +6925,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-472600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-233700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>262100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-191800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>229800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-94400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>744900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>377200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-21400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>15900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>15000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-62400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>23300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>39100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>18800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-95600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>TSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,332 +665,345 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44737</v>
+      </c>
+      <c r="E7" s="2">
         <v>44646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44464</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44282</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44191</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3903400</v>
+      </c>
+      <c r="E8" s="3">
         <v>3024100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3319300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3017900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3601600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2792300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2878300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2606600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3176300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1959200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2191800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1984100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2353800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1822200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2133300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1881600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2213200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1682900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1952800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1721700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2017800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1564100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1916500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1542700</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2517200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1967600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2198700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1932600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2314100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1808600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1882700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1658600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2019500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1297900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1450000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1289900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1533000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1207200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1416900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1228500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1443800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1119300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1284200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1121200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1313100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1045900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1270300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1007400</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1386200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1056500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1120600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1085300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1287500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>983700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>995600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>948000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1156800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>661300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>741800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>694200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>820800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>615000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>716400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>653100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>769400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>563600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>668600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>600500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>704700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>518200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>646200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>535300</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,8 +1030,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1091,8 +1105,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,19 +1182,22 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1185,11 +1205,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>69000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1206,8 +1226,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1239,82 +1259,88 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>83400</v>
+      </c>
+      <c r="E15" s="3">
         <v>77600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>75400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>69800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>64900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>60100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>58500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>54700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>52500</v>
-      </c>
-      <c r="L15" s="3">
-        <v>51400</v>
       </c>
       <c r="M15" s="3">
         <v>51400</v>
       </c>
       <c r="N15" s="3">
+        <v>51400</v>
+      </c>
+      <c r="O15" s="3">
         <v>49800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>49000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>45800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>46000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>45000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>43600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>42800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>43100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>41900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>41000</v>
-      </c>
-      <c r="X15" s="3">
-        <v>39700</v>
       </c>
       <c r="Y15" s="3">
         <v>39700</v>
       </c>
       <c r="Z15" s="3">
+        <v>39700</v>
+      </c>
+      <c r="AA15" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,156 +1364,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3378400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2779800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3026200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2720700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3115700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2561800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2693800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2354400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2728600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1846700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2001300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1822300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2066200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1718800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1952900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1728500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1939800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1588200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1769000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1573500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1759800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1467700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1721900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1400700</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>525000</v>
+      </c>
+      <c r="E18" s="3">
         <v>244300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>293100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>297200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>485900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>230500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>184500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>252200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>447700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>112600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>190500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>161800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>287600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>103400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>180400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>153100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>273400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>94700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>183800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>148200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>258000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>96400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>194600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,8 +1547,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1565,11 +1599,11 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1588,82 +1622,88 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>608400</v>
+      </c>
+      <c r="E21" s="3">
         <v>321900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>368500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>367000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>550700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>290600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>243000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>306800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>500300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>164000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>241800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>211600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>336600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>149200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>226300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>198200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>317100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>137600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>227000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>190200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>299000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>136100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>234300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>177700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1671,221 +1711,230 @@
         <v>7100</v>
       </c>
       <c r="E22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F22" s="3">
         <v>6500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>517900</v>
+      </c>
+      <c r="E23" s="3">
         <v>237200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>286500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>291100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>479200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>223300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>176400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>245000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>439300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>107500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>185600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>156900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>282400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>98500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>175900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>148700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>268500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>90300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>179600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>144500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>254800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>93600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>193000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>121500</v>
+      </c>
+      <c r="E24" s="3">
         <v>50000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>65200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>66700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>109200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>42000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>40500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>54400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>41400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>34800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>63200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>39100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>31900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>61200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>18800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>65000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>52600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>94200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>33300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>69400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1958,156 +2007,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>396500</v>
+      </c>
+      <c r="E26" s="3">
         <v>187200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>221300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>224400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>370000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>181400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>135900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>190600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>338700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>83800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>144200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>122100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>219200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>76800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>136900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>116800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>207300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>71400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>114600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>91900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>160600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>60300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>123600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>396500</v>
+      </c>
+      <c r="E27" s="3">
         <v>187200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>221300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>224400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>370000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>181400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>135900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>190600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>338700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>83800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>144200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>122100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>219200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>76800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>136900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>116800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>207300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>71400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>114600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>91900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>160600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>60300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>123600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2180,8 +2238,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2218,17 +2279,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2236,11 +2297,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-4900</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2254,8 +2315,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2392,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,8 +2469,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2453,11 +2523,11 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2476,82 +2546,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>396500</v>
+      </c>
+      <c r="E33" s="3">
         <v>187200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>221300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>224400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>370000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>181400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>135900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>190600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>338700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>83800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>144200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>122100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>219200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>76800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>136900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>116800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>207300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>71400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>109700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>91900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>160600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>60300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>123600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,161 +2700,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>396500</v>
+      </c>
+      <c r="E35" s="3">
         <v>187200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>221300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>224400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>370000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>181400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>135900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>190600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>338700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>83800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>144200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>122100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>219200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>76800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>136900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>116800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>207300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>71400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>109700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>91900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>160600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>60300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>123600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44737</v>
+      </c>
+      <c r="E38" s="2">
         <v>44646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44464</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44282</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44191</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2890,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,82 +2919,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>530800</v>
+      </c>
+      <c r="E41" s="3">
         <v>405400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>878000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1111700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1412000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1149900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1341800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1112000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1206400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>461500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>84200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>82600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>104000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>102200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>86300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>71300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>70000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>132400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>109100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>70000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>67800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>72700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>53900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2981,22 +3071,25 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>9000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6800</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
@@ -3004,12 +3097,12 @@
       <c r="I43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
         <v>7800</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -3017,25 +3110,25 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>5600</v>
       </c>
       <c r="P43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Q43" s="3">
         <v>4800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>23700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5100</v>
-      </c>
-      <c r="T43" s="3">
-        <v>4800</v>
       </c>
       <c r="U43" s="3">
         <v>4800</v>
@@ -3044,241 +3137,253 @@
         <v>4800</v>
       </c>
       <c r="W43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="X43" s="3">
         <v>4100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2485100</v>
+      </c>
+      <c r="E44" s="3">
         <v>2568200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2191200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2199800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1992800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2084700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1783300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1915000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1688500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1905900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1602800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1812800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1733200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1881300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1589500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1737300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1632300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1760100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1453200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1591600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1468300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1657800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1369700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1489900</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>214400</v>
+      </c>
+      <c r="E45" s="3">
         <v>185600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>164100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>149600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>162300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>146200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>133700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>136100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>135200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>112900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>104500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>95100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>90700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>114400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>109500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>103400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>86800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>88300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>75600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>90400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>86500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>90600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3230400</v>
+      </c>
+      <c r="E46" s="3">
         <v>3168300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3250400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3467900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3567100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3380800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3258700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3171000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3030100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2480200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1787900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2005500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1937800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2079100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1794400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1941700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1810700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1984100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1655400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1742000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1630500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1824300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1517800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1629800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3351,82 +3456,88 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4504700</v>
+      </c>
+      <c r="E48" s="3">
         <v>4399800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4403700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4167200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4008900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3876400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3672800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3532800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3416800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3371800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3352800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3276300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3226700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3207800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1134500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1112000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1081500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1050400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1044500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>996800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>982400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>957000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>962300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>923200</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3449,7 +3560,7 @@
         <v>55500</v>
       </c>
       <c r="J49" s="3">
-        <v>124500</v>
+        <v>55500</v>
       </c>
       <c r="K49" s="3">
         <v>124500</v>
@@ -3488,7 +3599,7 @@
         <v>124500</v>
       </c>
       <c r="W49" s="3">
-        <v>125700</v>
+        <v>124500</v>
       </c>
       <c r="X49" s="3">
         <v>125700</v>
@@ -3497,10 +3608,13 @@
         <v>125700</v>
       </c>
       <c r="Z49" s="3">
+        <v>125700</v>
+      </c>
+      <c r="AA49" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3687,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,82 +3764,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E52" s="3">
         <v>63200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>57800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>54600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>56300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>46900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>62100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>32500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>39600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>25900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>24100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>23000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>23700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>25800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>31900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>42700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>50600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>48800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>44400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>65000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>77000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>69400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>69100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,82 +3918,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7869200</v>
+      </c>
+      <c r="E54" s="3">
         <v>7686800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7767500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7745200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7687900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7359700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7049100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6860800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6611100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6002400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5289300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5429300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5312700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5437200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3085300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3220900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3067400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3207800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2868800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2928400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2815600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2976400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2674900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2635700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4026,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,452 +4055,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1280500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1341600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1155600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1197800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1221900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1181900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>976100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1056900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1003700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>887900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>643000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>679800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>681500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>785100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>620000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>683700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>649700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>732500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>576600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>609900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>510800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>563500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>519500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>484000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E58" s="3">
         <v>4000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>384400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>384300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>34200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>34000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>33900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>26200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>24900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>29900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>30000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>28700</v>
-      </c>
-      <c r="T58" s="3">
-        <v>28500</v>
       </c>
       <c r="U58" s="3">
         <v>28500</v>
       </c>
       <c r="V58" s="3">
+        <v>28500</v>
+      </c>
+      <c r="W58" s="3">
         <v>26000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>23400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>13900</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>11300</v>
       </c>
       <c r="Z58" s="3">
         <v>11300</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>958200</v>
+      </c>
+      <c r="E59" s="3">
         <v>854000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>905300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>844000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>856800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>789300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>763100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>691300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>769000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>572000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>570500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>538000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>563600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>501900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>288200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>260900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>263100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>252900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>244100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>236300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>272300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>239700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>246400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2242200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2199700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2064800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2046000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2083500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1975900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1743800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2132700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2157100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1494100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1247600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1251700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1271400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1311900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>938100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>974500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>941500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1013900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>849200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>872200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>806500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>817100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>777200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>712300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1023300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1023500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1019200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1015900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1016000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1016700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1017400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>562200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>568100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1020200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>396900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>643100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>493700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>634000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>410400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>577200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>547000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>711300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>433700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>520700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>467500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>624400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>289800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>310000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2689900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2673600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2680700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2662500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2608200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2514700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2364100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2290100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2190100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2134300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2077700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2042700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2002700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2005700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>175000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>173900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>172800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>169300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>167200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>164000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>159000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>155400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>154800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4592,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4517,8 +4669,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,82 +4746,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5955300</v>
+      </c>
+      <c r="E66" s="3">
         <v>5896800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5764800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5724400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5707800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5507400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5125300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4984900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4915300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4648700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3722100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3937500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3767800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3951600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1523400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1725600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1661400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1894500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1450100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1557000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1433000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1596900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1221700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4854,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4929,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5006,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4915,8 +5083,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,82 +5160,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5322900</v>
+      </c>
+      <c r="E72" s="3">
         <v>5029000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4945200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4783100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4618000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4307900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4187100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4097900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3953800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3655800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3612800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3510100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3429500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3252400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3213900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3115000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3036000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2866500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2829200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2753300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2695600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2569500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2540400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2448300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5314,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5391,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,82 +5468,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1913900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1790000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2002700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2020800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1980100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1852300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1923800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1875900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1695700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1353700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1567100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1491800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1544900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1485600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1561800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1495300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1406000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1313200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1418700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1371400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1382600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1379500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1453200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1464700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,161 +5622,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44737</v>
+      </c>
+      <c r="E80" s="2">
         <v>44646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44464</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44282</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44191</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>396500</v>
+      </c>
+      <c r="E81" s="3">
         <v>187200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>221300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>224400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>370000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>181400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>135900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>190600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>338700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>83800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>144200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>122100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>219200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>76800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>136900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>116800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>207300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>71400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>109700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>91900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>160600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>60300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>123600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,82 +5812,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>83400</v>
+      </c>
+      <c r="E83" s="3">
         <v>77600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>75400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>69800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>64900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>60100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>58500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>54700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>52500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>51400</v>
       </c>
       <c r="M83" s="3">
         <v>51400</v>
       </c>
       <c r="N83" s="3">
+        <v>51400</v>
+      </c>
+      <c r="O83" s="3">
         <v>49800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>49000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>45800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>46000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>45000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>43600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>42800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>43100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>41900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>41000</v>
-      </c>
-      <c r="X83" s="3">
-        <v>39700</v>
       </c>
       <c r="Y83" s="3">
         <v>39700</v>
       </c>
       <c r="Z83" s="3">
+        <v>39700</v>
+      </c>
+      <c r="AA83" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5964,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6041,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6118,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6195,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,82 +6272,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>566500</v>
+      </c>
+      <c r="E89" s="3">
         <v>59100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>266900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>62900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>631800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>177100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>389500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>909200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>83900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>397400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>65500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>361900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>341000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>79400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>295900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-21900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>290500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>113500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>369200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-141700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>376700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,82 +6380,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-152900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-112400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-246100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-166300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-115300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-132700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-74700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-57000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-29600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-73100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-60800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-54800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-28800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-84800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-77000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-71600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-45100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-98400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-55400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-61700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-34900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-284900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6532,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,82 +6609,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-152800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-112300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-246100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-165600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-115200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-132000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-74200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-56700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-72900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-59100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-54500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-28400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-84700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-75300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-71300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-45100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-96800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-55300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-51000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-34900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-202500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,82 +6717,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-102600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-103500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-59200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-59400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-59900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-60600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-46600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-46500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-40600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-40800</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-41500</v>
       </c>
       <c r="N96" s="3">
         <v>-41500</v>
       </c>
       <c r="O96" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="P96" s="3">
         <v>-42100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-37900</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-37800</v>
       </c>
       <c r="S96" s="3">
         <v>-37800</v>
       </c>
       <c r="T96" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="U96" s="3">
         <v>-33600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-33900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-34100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-34600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-31300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-31400</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6869,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6946,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,82 +7023,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-288300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-419400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-254500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-197700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-254500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-268400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-27700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-32000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-107700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>322600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-322900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-27700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-305600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>57400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-241300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-287000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>90200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-154600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-55900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-323100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>195300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-164200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6928,78 +7177,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-472600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-233700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>262100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-191800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>229800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-94400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>744900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>377200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-21400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>15900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>15000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-62400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>23300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>39100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>18800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-95600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>TSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,345 +665,358 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44828</v>
+      </c>
+      <c r="E7" s="2">
         <v>44737</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44464</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3270800</v>
+      </c>
+      <c r="E8" s="3">
         <v>3903400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3024100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3319300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3017900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3601600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2792300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2878300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2606600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3176300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1959200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2191800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1984100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2353800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1822200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2133300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1881600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2213200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1682900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1952800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1721700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2017800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1564100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1916500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1542700</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2105000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2517200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1967600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2198700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1932600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2314100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1808600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1882700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1658600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2019500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1297900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1450000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1289900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1533000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1207200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1416900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1228500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1443800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1119300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1284200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1121200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1313100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1045900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1270300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1007400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1165800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1386200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1056500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1120600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1085300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1287500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>983700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>995600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>948000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1156800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>661300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>741800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>694200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>820800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>615000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>716400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>653100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>769400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>563600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>668600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>600500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>704700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>518200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>646200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>535300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1031,8 +1044,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1108,8 +1122,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,8 +1202,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1196,11 +1216,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1208,11 +1228,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>69000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1229,8 +1249,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1262,85 +1282,91 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E15" s="3">
         <v>83400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>77600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>75400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>69800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>64900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>60100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>58500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>54700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>52500</v>
-      </c>
-      <c r="M15" s="3">
-        <v>51400</v>
       </c>
       <c r="N15" s="3">
         <v>51400</v>
       </c>
       <c r="O15" s="3">
+        <v>51400</v>
+      </c>
+      <c r="P15" s="3">
         <v>49800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>49000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>45800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>46000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>45000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>43600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>42800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>43100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>41900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>41000</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>39700</v>
       </c>
       <c r="Z15" s="3">
         <v>39700</v>
       </c>
       <c r="AA15" s="3">
+        <v>39700</v>
+      </c>
+      <c r="AB15" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1365,162 +1391,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2964400</v>
+      </c>
+      <c r="E17" s="3">
         <v>3378400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2779800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3026200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2720700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3115700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2561800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2693800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2354400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2728600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1846700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2001300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1822300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2066200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1718800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1952900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1728500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1939800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1588200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1769000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1573500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1759800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1467700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1721900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1400700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>306400</v>
+      </c>
+      <c r="E18" s="3">
         <v>525000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>244300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>293100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>297200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>485900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>230500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>184500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>252200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>447700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>112600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>190500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>161800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>287600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>103400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>180400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>153100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>273400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>94700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>183800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>148200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>258000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>96400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>194600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1548,8 +1581,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1602,11 +1636,11 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1625,316 +1659,331 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>393600</v>
+      </c>
+      <c r="E21" s="3">
         <v>608400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>321900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>368500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>367000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>550700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>290600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>243000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>306800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>164000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>241800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>211600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>336600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>149200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>226300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>198200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>317100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>137600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>227000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>190200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>299000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>136100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>234300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>177700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7100</v>
+        <v>6200</v>
       </c>
       <c r="E22" s="3">
         <v>7100</v>
       </c>
       <c r="F22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G22" s="3">
         <v>6500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300200</v>
+      </c>
+      <c r="E23" s="3">
         <v>517900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>237200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>286500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>291100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>479200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>223300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>176400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>245000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>439300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>107500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>185600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>156900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>282400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>98500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>175900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>148700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>268500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>90300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>179600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>144500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>254800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>93600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>193000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E24" s="3">
         <v>121500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>50000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>65200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>66700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>109200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>42000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>40500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>54400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>41400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>34800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>63200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>39100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>31900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>61200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>18800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>65000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>52600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>94200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>33300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>69400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2010,162 +2059,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>234100</v>
+      </c>
+      <c r="E26" s="3">
         <v>396500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>187200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>221300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>224400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>370000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>181400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>135900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>190600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>338700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>83800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>144200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>122100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>219200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>76800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>136900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>116800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>207300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>71400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>114600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>91900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>160600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>60300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>123600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>234100</v>
+      </c>
+      <c r="E27" s="3">
         <v>396500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>187200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>221300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>224400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>370000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>181400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>135900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>190600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>338700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>83800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>144200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>122100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>219200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>76800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>136900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>116800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>207300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>71400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>114600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>91900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>160600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>60300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>123600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2241,8 +2299,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2282,17 +2343,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2300,11 +2361,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-4900</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2318,8 +2379,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2459,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2472,8 +2539,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2526,11 +2596,11 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2549,85 +2619,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>234100</v>
+      </c>
+      <c r="E33" s="3">
         <v>396500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>187200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>221300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>224400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>370000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>181400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>135900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>190600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>338700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>83800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>144200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>122100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>219200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>76800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>136900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>116800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>207300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>71400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>109700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>91900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>160600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>60300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>123600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2703,167 +2779,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>234100</v>
+      </c>
+      <c r="E35" s="3">
         <v>396500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>187200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>221300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>224400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>370000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>181400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>135900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>190600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>338700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>83800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>144200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>122100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>219200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>76800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>136900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>116800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>207300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>71400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>109700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>91900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>160600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>60300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>123600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44828</v>
+      </c>
+      <c r="E38" s="2">
         <v>44737</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44464</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +2976,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2920,85 +3006,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>211200</v>
+      </c>
+      <c r="E41" s="3">
         <v>530800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>405400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>878000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1111700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1412000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1149900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1341800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1112000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1206400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>461500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>84200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>82600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>104000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>102200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>86300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>71300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>70000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>132400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>109100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>70000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>67800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>72700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>53900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3074,25 +3164,28 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>9000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6800</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
@@ -3100,12 +3193,12 @@
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3">
         <v>7800</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
@@ -3113,25 +3206,25 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>5600</v>
       </c>
       <c r="Q43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="R43" s="3">
         <v>4800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>23700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5100</v>
-      </c>
-      <c r="U43" s="3">
-        <v>4800</v>
       </c>
       <c r="V43" s="3">
         <v>4800</v>
@@ -3140,250 +3233,262 @@
         <v>4800</v>
       </c>
       <c r="X43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Y43" s="3">
         <v>4100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2678200</v>
+      </c>
+      <c r="E44" s="3">
         <v>2485100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2568200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2191200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2199800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1992800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2084700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1783300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1915000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1688500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1905900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1602800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1812800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1733200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1881300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1589500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1737300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1632300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1760100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1453200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1591600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1468300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1657800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1369700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1489900</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>211900</v>
+      </c>
+      <c r="E45" s="3">
         <v>214400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>185600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>164100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>149600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>162300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>146200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>133700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>136100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>135200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>112900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>104500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>95100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>90700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>114400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>109500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>103400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>86800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>88300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>75600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>90400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>86500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>90600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3109800</v>
+      </c>
+      <c r="E46" s="3">
         <v>3230400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3168300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3250400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3467900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3567100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3380800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3258700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3171000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3030100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2480200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1787900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2005500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1937800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2079100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1794400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1941700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1810700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1984100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1655400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1742000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1630500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1824300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1517800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1629800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3459,85 +3564,91 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4647100</v>
+      </c>
+      <c r="E48" s="3">
         <v>4504700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4399800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4403700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4167200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4008900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3876400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3672800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3532800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3416800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3371800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3352800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3276300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3226700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3207800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1134500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1112000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1081500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1050400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1044500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>996800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>982400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>957000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>962300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>923200</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3563,7 +3674,7 @@
         <v>55500</v>
       </c>
       <c r="K49" s="3">
-        <v>124500</v>
+        <v>55500</v>
       </c>
       <c r="L49" s="3">
         <v>124500</v>
@@ -3602,7 +3713,7 @@
         <v>124500</v>
       </c>
       <c r="X49" s="3">
-        <v>125700</v>
+        <v>124500</v>
       </c>
       <c r="Y49" s="3">
         <v>125700</v>
@@ -3611,10 +3722,13 @@
         <v>125700</v>
       </c>
       <c r="AA49" s="3">
+        <v>125700</v>
+      </c>
+      <c r="AB49" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3690,8 +3804,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3767,85 +3884,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>99300</v>
+      </c>
+      <c r="E52" s="3">
         <v>78600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>63200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>57800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>54600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>56300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>46900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>62100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>32500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>39600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>25900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>24100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>23000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>23700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>25800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>31900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>42700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>50600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>48800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>44400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>65000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>77000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>69400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>69100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3921,85 +4044,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7911700</v>
+      </c>
+      <c r="E54" s="3">
         <v>7869200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7686800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7767500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7745200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7687900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7359700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7049100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6860800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6611100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6002400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5289300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5429300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5312700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5437200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3085300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3220900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3067400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3207800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2868800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2928400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2815600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2976400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2674900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2635700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4156,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,470 +4186,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1219600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1280500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1341600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1155600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1197800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1221900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1181900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>976100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1056900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1003700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>887900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>643000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>679800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>681500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>785100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>620000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>683700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>649700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>732500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>576600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>609900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>510800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>563500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>519500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>484000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E58" s="3">
         <v>3500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>384400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>384300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>34200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>34000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>33900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>26200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>24900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>29900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>30000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>28700</v>
-      </c>
-      <c r="U58" s="3">
-        <v>28500</v>
       </c>
       <c r="V58" s="3">
         <v>28500</v>
       </c>
       <c r="W58" s="3">
+        <v>28500</v>
+      </c>
+      <c r="X58" s="3">
         <v>26000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>23400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>13900</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>11300</v>
       </c>
       <c r="AA58" s="3">
         <v>11300</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>872500</v>
+      </c>
+      <c r="E59" s="3">
         <v>958200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>854000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>905300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>844000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>856800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>789300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>763100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>691300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>769000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>572000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>570500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>538000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>563600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>501900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>288200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>260900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>263100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>252900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>244100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>236300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>272300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>239700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>246400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2095200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2242200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2199700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2064800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2046000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2083500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1975900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1743800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2132700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2157100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1494100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1247600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1251700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1271400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1311900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>938100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>974500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>941500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1013900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>849200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>872200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>806500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>817100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>777200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>712300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1113400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1023300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1023500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1019200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1015900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1016000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1016700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1017400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>562200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>568100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1020200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>396900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>643100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>493700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>634000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>410400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>577200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>547000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>711300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>433700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>520700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>467500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>624400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>289800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>310000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2762000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2689900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2673600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2680700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2662500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2608200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2514700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2364100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2290100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2190100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2134300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2077700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2042700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2002700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2005700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>175000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>173900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>172800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>169300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>167200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>164000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>159000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>155400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>154800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4744,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4672,8 +4824,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4749,85 +4904,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5970600</v>
+      </c>
+      <c r="E66" s="3">
         <v>5955300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5896800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5764800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5724400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5707800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5507400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5125300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4984900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4915300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4648700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3722100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3937500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3767800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3951600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1523400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1725600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1661400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1894500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1450100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1557000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1433000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1596900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1221700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4855,8 +5016,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4932,8 +5094,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5009,8 +5174,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5086,8 +5254,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5163,85 +5334,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5455100</v>
+      </c>
+      <c r="E72" s="3">
         <v>5322900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5029000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4945200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4783100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4618000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4307900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4187100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4097900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3953800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3655800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3612800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3510100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3429500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3252400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3213900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3115000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3036000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2866500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2829200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2753300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2695600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2569500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2540400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2448300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5317,8 +5494,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5394,8 +5574,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5471,85 +5654,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1941100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1913900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1790000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2002700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2020800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1980100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1852300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1923800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1875900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1695700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1353700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1567100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1491800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1544900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1485600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1561800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1495300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1406000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1313200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1418700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1371400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1382600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1379500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1453200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1464700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,167 +5814,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44828</v>
+      </c>
+      <c r="E80" s="2">
         <v>44737</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44464</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>234100</v>
+      </c>
+      <c r="E81" s="3">
         <v>396500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>187200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>221300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>224400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>370000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>181400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>135900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>190600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>338700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>83800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>144200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>122100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>219200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>76800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>136900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>116800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>207300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>71400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>109700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>91900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>160600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>60300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>123600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,85 +6011,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E83" s="3">
         <v>83400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>77600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>75400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>69800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>64900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>60100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>58500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>54700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>52500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>51400</v>
       </c>
       <c r="N83" s="3">
         <v>51400</v>
       </c>
       <c r="O83" s="3">
+        <v>51400</v>
+      </c>
+      <c r="P83" s="3">
         <v>49800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>49000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>45800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>46000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>45000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>43600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>42800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>43100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>41900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>41000</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>39700</v>
       </c>
       <c r="Z83" s="3">
         <v>39700</v>
       </c>
       <c r="AA83" s="3">
+        <v>39700</v>
+      </c>
+      <c r="AB83" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5967,8 +6169,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6044,8 +6249,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6121,8 +6329,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6198,8 +6409,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6275,85 +6489,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>700</v>
+      </c>
+      <c r="E89" s="3">
         <v>566500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>59100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>266900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>62900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>631800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>177100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>389500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>909200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>83900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>397400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>65500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>361900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-13000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>341000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>79400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>295900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-21900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>290500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>113500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>369200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-141700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>376700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6381,85 +6601,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-185800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-152900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-112400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-246100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-166300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-115300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-132700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-74700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-57000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-73100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-60800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-54800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-28800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-84800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-77000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-71600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-45100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-98400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-55400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-61700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-34900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-284900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6535,8 +6759,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6612,85 +6839,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-185900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-152800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-112300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-246100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-165600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-115200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-132000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-74200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-56700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-72900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-59100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-54500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-28400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-84700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-75300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-71300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-45100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-96800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-55300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-51000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-34900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-202500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6718,85 +6951,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-101900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-102600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-103500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-59200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-59400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-59900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-60600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-46600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-46500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-40600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-40800</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-41500</v>
       </c>
       <c r="O96" s="3">
         <v>-41500</v>
       </c>
       <c r="P96" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-37600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-37900</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-37800</v>
       </c>
       <c r="T96" s="3">
         <v>-37800</v>
       </c>
       <c r="U96" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="V96" s="3">
         <v>-33600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-33900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-34100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-34600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-31300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-31400</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6872,8 +7109,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6949,8 +7189,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7026,85 +7269,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-134500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-288300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-419400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-254500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-197700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-254500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-268400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-27700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-32000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-107700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>322600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-322900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-27700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-305600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>57400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-241300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-287000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>90200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-154600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-55900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-323100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>195300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-164200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7180,81 +7429,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-319600</v>
+      </c>
+      <c r="E102" s="3">
         <v>125400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-472600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-233700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>262100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-191800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>229800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-94400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>744900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>377200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-21400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>15900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>15000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-62400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>23300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>39100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>18800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-95600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>TSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,358 +665,370 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44828</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44737</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44464</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44282</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4006400</v>
+      </c>
+      <c r="E8" s="3">
         <v>3270800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3903400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3024100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3319300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3017900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3601600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2792300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2878300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2606600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3176300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1959200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2191800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1984100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2353800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1822200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2133300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1881600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2213200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1682900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1952800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1721700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2017800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1564100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1916500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1542700</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2642800</v>
+      </c>
+      <c r="E9" s="3">
         <v>2105000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2517200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1967600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2198700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1932600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2314100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1808600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1882700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1658600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2019500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1297900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1450000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1289900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1533000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1207200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1416900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1228500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1443800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1119300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1284200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1121200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1313100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1045900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1270300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1007400</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1363700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1165800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1386200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1056500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1120600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1085300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1287500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>983700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>995600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>948000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1156800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>661300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>741800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>694200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>820800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>615000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>716400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>653100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>769400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>563600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>668600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>600500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>704700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>518200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>646200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>535300</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1045,8 +1057,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1125,8 +1138,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1205,13 +1221,16 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1219,11 +1238,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1231,11 +1250,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>69000</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1252,8 +1271,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1285,88 +1304,94 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>94800</v>
+      </c>
+      <c r="E15" s="3">
         <v>87200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>83400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>77600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>75400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>69800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>64900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>60100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>58500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>54700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>52500</v>
-      </c>
-      <c r="N15" s="3">
-        <v>51400</v>
       </c>
       <c r="O15" s="3">
         <v>51400</v>
       </c>
       <c r="P15" s="3">
+        <v>51400</v>
+      </c>
+      <c r="Q15" s="3">
         <v>49800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>49000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>45800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>46000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>45000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>43600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>42800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>43100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>41900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>41000</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>39700</v>
       </c>
       <c r="AA15" s="3">
         <v>39700</v>
       </c>
       <c r="AB15" s="3">
+        <v>39700</v>
+      </c>
+      <c r="AC15" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1392,168 +1417,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3647200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2964400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3378400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2779800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3026200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2720700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3115700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2561800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2693800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2354400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2728600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1846700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2001300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1822300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2066200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1718800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1952900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1728500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1939800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1588200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1769000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1573500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1759800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1467700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1721900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1400700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>359200</v>
+      </c>
+      <c r="E18" s="3">
         <v>306400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>525000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>244300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>293100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>297200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>485900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>230500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>184500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>252200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>447700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>112600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>190500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>161800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>287600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>103400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>180400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>153100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>273400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>94700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>183800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>148200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>258000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>96400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>194600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,8 +1614,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1639,11 +1672,11 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1662,328 +1695,343 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>454000</v>
+      </c>
+      <c r="E21" s="3">
         <v>393600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>608400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>321900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>368500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>367000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>550700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>290600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>243000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>306800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>164000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>241800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>211600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>336600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>149200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>226300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>198200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>317100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>137600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>227000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>190200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>299000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>136100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>234300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>177700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E22" s="3">
         <v>6200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>7100</v>
       </c>
       <c r="F22" s="3">
         <v>7100</v>
       </c>
       <c r="G22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H22" s="3">
         <v>6500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>349000</v>
+      </c>
+      <c r="E23" s="3">
         <v>300200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>517900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>237200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>286500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>291100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>479200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>223300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>176400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>245000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>439300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>107500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>185600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>156900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>282400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>98500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>175900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>148700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>268500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>90300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>179600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>144500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>254800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>93600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>193000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E24" s="3">
         <v>66000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>121500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>50000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>65200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>66700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>109200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>42000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>40500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>54400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>41400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>34800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>63200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>39100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>31900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>61200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>65000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>52600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>94200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>33300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>69400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2062,168 +2110,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>270900</v>
+      </c>
+      <c r="E26" s="3">
         <v>234100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>396500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>187200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>221300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>224400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>370000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>181400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>135900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>190600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>338700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>83800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>144200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>122100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>219200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>76800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>136900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>116800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>207300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>71400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>114600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>91900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>160600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>60300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>123600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>270900</v>
+      </c>
+      <c r="E27" s="3">
         <v>234100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>396500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>187200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>221300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>224400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>370000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>181400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>135900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>190600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>338700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>83800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>144200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>122100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>219200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>76800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>136900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>116800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>207300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>71400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>114600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>91900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>160600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>60300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>123600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2302,8 +2359,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2346,17 +2406,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2364,11 +2424,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>-4900</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2382,8 +2442,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2462,8 +2525,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2542,8 +2608,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2599,11 +2668,11 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2622,88 +2691,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>270900</v>
+      </c>
+      <c r="E33" s="3">
         <v>234100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>396500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>187200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>221300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>224400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>370000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>181400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>135900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>190600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>338700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>83800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>144200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>122100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>219200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>76800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>136900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>116800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>207300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>71400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>109700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>91900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>160600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>60300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>123600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2782,173 +2857,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>270900</v>
+      </c>
+      <c r="E35" s="3">
         <v>234100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>396500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>187200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>221300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>224400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>370000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>181400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>135900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>190600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>338700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>83800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>144200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>122100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>219200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>76800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>136900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>116800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>207300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>71400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>109700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>91900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>160600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>60300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>123600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44828</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44737</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44464</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44282</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2977,8 +3061,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3007,88 +3092,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>202500</v>
+      </c>
+      <c r="E41" s="3">
         <v>211200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>530800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>405400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>878000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1111700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1412000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1149900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1341800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1112000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1206400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>461500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>84200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>82600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>104000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>102200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>86300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>71300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>70000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>132400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>109100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>70000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>67800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>72700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>53900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3167,28 +3256,31 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>8400</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>9000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6800</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
@@ -3196,12 +3288,12 @@
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3">
         <v>7800</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
@@ -3209,25 +3301,25 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>5600</v>
       </c>
       <c r="R43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="S43" s="3">
         <v>4800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>23700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5100</v>
-      </c>
-      <c r="V43" s="3">
-        <v>4800</v>
       </c>
       <c r="W43" s="3">
         <v>4800</v>
@@ -3236,259 +3328,271 @@
         <v>4800</v>
       </c>
       <c r="Y43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Z43" s="3">
         <v>4100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2709600</v>
+      </c>
+      <c r="E44" s="3">
         <v>2678200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2485100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2568200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2191200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2199800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1992800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2084700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1783300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1915000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1688500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1905900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1602800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1812800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1733200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1881300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1589500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1737300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1632300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1760100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1453200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1591600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1468300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1657800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1369700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1489900</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>245700</v>
+      </c>
+      <c r="E45" s="3">
         <v>211900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>214400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>185600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>164100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>149600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>162300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>146200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>133700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>136100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>135200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>112900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>104500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>95100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>90700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>114400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>109500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>103400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>86800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>88300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>75600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>90400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>86500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>90600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3157800</v>
+      </c>
+      <c r="E46" s="3">
         <v>3109800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3230400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3168300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3250400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3467900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3567100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3380800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3258700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3171000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3030100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2480200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1787900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2005500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1937800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2079100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1794400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1941700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1810700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1984100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1655400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1742000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1630500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1824300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1517800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1629800</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3567,93 +3671,99 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5037400</v>
+      </c>
+      <c r="E48" s="3">
         <v>4647100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4504700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4399800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4403700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4167200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4008900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3876400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3672800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3532800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3416800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3371800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3352800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3276300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3226700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3207800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1134500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1112000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1081500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1050400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1044500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>996800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>982400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>957000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>962300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>923200</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>55500</v>
+        <v>253300</v>
       </c>
       <c r="E49" s="3">
         <v>55500</v>
@@ -3677,7 +3787,7 @@
         <v>55500</v>
       </c>
       <c r="L49" s="3">
-        <v>124500</v>
+        <v>55500</v>
       </c>
       <c r="M49" s="3">
         <v>124500</v>
@@ -3716,7 +3826,7 @@
         <v>124500</v>
       </c>
       <c r="Y49" s="3">
-        <v>125700</v>
+        <v>124500</v>
       </c>
       <c r="Z49" s="3">
         <v>125700</v>
@@ -3725,10 +3835,13 @@
         <v>125700</v>
       </c>
       <c r="AB49" s="3">
+        <v>125700</v>
+      </c>
+      <c r="AC49" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3807,8 +3920,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3887,88 +4003,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E52" s="3">
         <v>99300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>78600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>63200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>57800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>54600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>56300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>46900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>62100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>32500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>39600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>25900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>24100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>23000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>23700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>25800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>31900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>42700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>50600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>48800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>44400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>65000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>77000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>69400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>69100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4047,88 +4169,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8490000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7911700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7869200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7686800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7767500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7745200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7687900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7359700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7049100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6860800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6611100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6002400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5289300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5429300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5312700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5437200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3085300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3220900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3067400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3207800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2868800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2928400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2815600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2976400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2674900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2635700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4157,8 +4285,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4187,488 +4316,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1398300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1219600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1280500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1341600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1155600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1197800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1221900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1181900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>976100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1056900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1003700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>887900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>643000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>679800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>681500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>785100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>620000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>683700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>649700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>732500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>576600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>609900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>510800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>563500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>519500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>484000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>384400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>384300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>34200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>34000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>33900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>26200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>24900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>29900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>30000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>28700</v>
-      </c>
-      <c r="V58" s="3">
-        <v>28500</v>
       </c>
       <c r="W58" s="3">
         <v>28500</v>
       </c>
       <c r="X58" s="3">
+        <v>28500</v>
+      </c>
+      <c r="Y58" s="3">
         <v>26000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>23400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>13900</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>11300</v>
       </c>
       <c r="AB58" s="3">
         <v>11300</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>974700</v>
+      </c>
+      <c r="E59" s="3">
         <v>872500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>958200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>854000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>905300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>844000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>856800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>789300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>763100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>691300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>769000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>572000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>570500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>538000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>563600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>501900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>288200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>260900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>263100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>252900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>244100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>236300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>272300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>239700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>246400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2376200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2095200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2242200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2199700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2064800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2046000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2083500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1975900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1743800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2132700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2157100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1494100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1247600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1251700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1271400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1311900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>938100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>974500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>941500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1013900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>849200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>872200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>806500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>817100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>777200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>712300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1198700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1113400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1023300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1023500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1019200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1015900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1016000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1016700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1017400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>562200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>568100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1020200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>396900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>643100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>493700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>634000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>410400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>577200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>547000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>711300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>433700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>520700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>467500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>624400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>289800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>310000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2872700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2762000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2689900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2673600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2680700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2662500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2608200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2514700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2364100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2290100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2190100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2134300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2077700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2042700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2002700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2005700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>175000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>173900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>172800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>169300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>167200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>164000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>159000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>155400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>154800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4747,8 +4895,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4827,8 +4978,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4907,88 +5061,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6447600</v>
+      </c>
+      <c r="E66" s="3">
         <v>5970600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5955300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5896800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5764800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5724400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5707800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5507400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5125300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4984900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4915300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4648700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3722100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3937500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3767800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3951600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1523400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1725600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1661400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1894500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1450100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1557000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1433000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1596900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1221700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5017,8 +5177,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5097,8 +5258,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5177,8 +5341,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5257,8 +5424,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5337,88 +5507,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5624400</v>
+      </c>
+      <c r="E72" s="3">
         <v>5455100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5322900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5029000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4945200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4783100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4618000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4307900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4187100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4097900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3953800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3655800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3612800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3510100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3429500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3252400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3213900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3115000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3036000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2866500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2829200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2753300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2695600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2569500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2540400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2448300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5497,8 +5673,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5577,8 +5756,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5657,88 +5839,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2042400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1941100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1913900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1790000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2002700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2020800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1980100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1852300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1923800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1875900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1695700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1353700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1567100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1491800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1544900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1485600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1561800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1495300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1406000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1313200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1418700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1371400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1382600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1379500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1453200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1464700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5817,173 +6005,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44828</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44737</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44464</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44282</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>270900</v>
+      </c>
+      <c r="E81" s="3">
         <v>234100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>396500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>187200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>221300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>224400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>370000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>181400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>135900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>190600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>338700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>83800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>144200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>122100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>219200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>76800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>136900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>116800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>207300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>71400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>109700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>91900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>160600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>60300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>123600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6012,88 +6209,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>94800</v>
+      </c>
+      <c r="E83" s="3">
         <v>87200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>83400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>77600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>75400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>69800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>64900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>60100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>58500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>54700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>52500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>51400</v>
       </c>
       <c r="O83" s="3">
         <v>51400</v>
       </c>
       <c r="P83" s="3">
+        <v>51400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>49800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>49000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>45800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>46000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>45000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>43600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>42800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>43100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>41900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>41000</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>39700</v>
       </c>
       <c r="AA83" s="3">
         <v>39700</v>
       </c>
       <c r="AB83" s="3">
+        <v>39700</v>
+      </c>
+      <c r="AC83" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6172,8 +6373,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6252,8 +6456,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6332,8 +6539,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6412,8 +6622,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6492,88 +6705,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>730600</v>
+      </c>
+      <c r="E89" s="3">
         <v>700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>566500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>59100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>266900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>62900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>631800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>177100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>389500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>909200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>83900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>397400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>65500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>361900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-13000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>341000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>79400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>295900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-21900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>290500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>113500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>369200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-141700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>376700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6602,88 +6821,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-322200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-185800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-152900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-112400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-246100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-166300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-115300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-132700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-74700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-57000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-29600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-73100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-60800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-54800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-28800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-84800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-77000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-71600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-45100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-98400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-55400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-61700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-34900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-284900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6762,8 +6985,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6842,88 +7068,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-642700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-185900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-152800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-112300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-246100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-165600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-115200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-132000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-74200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-56700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-72900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-59100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-54500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-28400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-84700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-75300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-71300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-45100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-96800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-55300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-51000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-34900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-202500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6952,88 +7184,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-101700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-101900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-102600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-103500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-59200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-59400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-59900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-60600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-46600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-46500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-40600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-40800</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-41500</v>
       </c>
       <c r="P96" s="3">
         <v>-41500</v>
       </c>
       <c r="Q96" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="R96" s="3">
         <v>-42100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-37600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-37900</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-37800</v>
       </c>
       <c r="U96" s="3">
         <v>-37800</v>
       </c>
       <c r="V96" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="W96" s="3">
         <v>-33600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-33900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-34100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-34600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-31300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-31400</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7112,8 +7348,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7192,8 +7431,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7272,88 +7514,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-96600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-134500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-288300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-419400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-254500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-197700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-254500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-268400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-27700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-32000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-107700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>322600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-322900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-305600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>57400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-241300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-287000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>90200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-154600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-55900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-323100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>195300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-164200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7432,84 +7680,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-319600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>125400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-472600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-233700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>262100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-191800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>229800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-94400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>744900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>377200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>15900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>15000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-62400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>23300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>39100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>18800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-95600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>TSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,370 +665,383 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44828</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44737</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44464</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3299200</v>
+      </c>
+      <c r="E8" s="3">
         <v>4006400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3270800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3903400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3024100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3319300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3017900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3601600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2792300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2878300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2606600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3176300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1959200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2191800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1984100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2353800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1822200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2133300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1881600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2213200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1682900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1952800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1721700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2017800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1564100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1916500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1542700</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2129300</v>
+      </c>
+      <c r="E9" s="3">
         <v>2642800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2105000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2517200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1967600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2198700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1932600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2314100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1808600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1882700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1658600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2019500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1297900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1450000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1289900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1533000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1207200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1416900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1228500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1443800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1119300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1284200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1121200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1313100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1045900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1270300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1007400</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1169900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1363700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1165800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1386200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1056500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1120600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1085300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1287500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>983700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>995600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>948000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1156800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>661300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>741800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>694200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>820800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>615000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>716400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>653100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>769400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>563600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>668600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>600500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>704700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>518200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>646200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>535300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1058,8 +1071,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1141,8 +1155,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1224,16 +1241,19 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1241,11 +1261,11 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1253,11 +1273,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>69000</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1274,8 +1294,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1307,91 +1327,97 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E15" s="3">
         <v>94800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>87200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>83400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>77600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>75400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>69800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>64900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>60100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>58500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>54700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>52500</v>
-      </c>
-      <c r="O15" s="3">
-        <v>51400</v>
       </c>
       <c r="P15" s="3">
         <v>51400</v>
       </c>
       <c r="Q15" s="3">
+        <v>51400</v>
+      </c>
+      <c r="R15" s="3">
         <v>49800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>49000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>45800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>46000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>45000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>43600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>42800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>43100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>41900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>41000</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>39700</v>
       </c>
       <c r="AB15" s="3">
         <v>39700</v>
       </c>
       <c r="AC15" s="3">
+        <v>39700</v>
+      </c>
+      <c r="AD15" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1418,174 +1444,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3054800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3647200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2964400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3378400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2779800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3026200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2720700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3115700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2561800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2693800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2354400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2728600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1846700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2001300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1822300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2066200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1718800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1952900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1728500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1939800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1588200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1769000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1573500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1759800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1467700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1721900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1400700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>244400</v>
+      </c>
+      <c r="E18" s="3">
         <v>359200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>306400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>525000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>244300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>293100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>297200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>485900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>230500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>184500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>252200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>447700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>112600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>190500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>161800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>287600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>103400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>180400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>153100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>273400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>94700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>183800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>148200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>258000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>96400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>194600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1615,8 +1648,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1675,11 +1709,11 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1698,340 +1732,355 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>341700</v>
+      </c>
+      <c r="E21" s="3">
         <v>454000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>393600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>608400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>321900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>368500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>367000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>550700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>290600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>243000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>306800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>500300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>164000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>241800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>211600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>336600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>149200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>226300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>198200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>317100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>137600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>227000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>190200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>299000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>136100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>234300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>177700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E22" s="3">
         <v>10200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>7100</v>
       </c>
       <c r="G22" s="3">
         <v>7100</v>
       </c>
       <c r="H22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I22" s="3">
         <v>6500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>2800</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>231800</v>
+      </c>
+      <c r="E23" s="3">
         <v>349000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>517900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>237200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>286500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>291100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>479200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>223300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>176400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>245000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>439300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>107500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>185600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>156900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>282400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>98500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>175900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>148700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>268500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>90300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>179600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>144500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>254800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>93600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>193000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E24" s="3">
         <v>78100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>66000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>121500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>50000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>65200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>66700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>109200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>42000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>40500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>54400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>41400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>34800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>63200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>39100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>31900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>61200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>18800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>65000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>52600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>94200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>33300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>69400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2113,174 +2162,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>183100</v>
+      </c>
+      <c r="E26" s="3">
         <v>270900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>234100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>396500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>187200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>221300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>224400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>370000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>181400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>135900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>190600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>338700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>83800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>144200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>122100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>219200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>76800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>136900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>116800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>207300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>71400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>114600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>91900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>160600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>60300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>123600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>183100</v>
+      </c>
+      <c r="E27" s="3">
         <v>270900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>234100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>396500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>187200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>221300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>224400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>370000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>181400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>135900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>190600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>338700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>83800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>144200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>122100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>219200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>76800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>136900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>116800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>207300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>71400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>114600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>91900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>160600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>60300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>123600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2362,8 +2420,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2409,17 +2470,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2427,11 +2488,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-4900</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2445,8 +2506,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2528,8 +2592,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2611,8 +2678,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2671,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2694,91 +2764,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>183100</v>
+      </c>
+      <c r="E33" s="3">
         <v>270900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>234100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>396500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>187200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>221300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>224400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>370000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>181400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>135900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>190600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>338700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>83800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>144200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>122100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>219200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>76800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>136900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>116800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>207300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>71400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>109700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>91900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>160600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>60300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>123600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2860,179 +2936,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>183100</v>
+      </c>
+      <c r="E35" s="3">
         <v>270900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>234100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>396500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>187200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>221300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>224400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>370000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>181400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>135900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>190600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>338700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>83800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>144200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>122100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>219200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>76800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>136900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>116800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>207300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>71400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>109700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>91900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>160600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>60300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>123600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44828</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44737</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44464</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3062,8 +3147,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3093,91 +3179,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>190100</v>
+      </c>
+      <c r="E41" s="3">
         <v>202500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>211200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>530800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>405400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>878000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1111700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1412000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1149900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1341800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1112000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1206400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>461500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>84200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>82600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>104000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>102200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>86300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>71300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>70000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>132400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>109100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>70000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>67800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>72700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>53900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3259,31 +3349,34 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>8400</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>9000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6800</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
@@ -3291,12 +3384,12 @@
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3">
         <v>7800</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -3304,25 +3397,25 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>5600</v>
       </c>
       <c r="S43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="T43" s="3">
         <v>4800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>23700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5100</v>
-      </c>
-      <c r="W43" s="3">
-        <v>4800</v>
       </c>
       <c r="X43" s="3">
         <v>4800</v>
@@ -3331,268 +3424,280 @@
         <v>4800</v>
       </c>
       <c r="Z43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="AA43" s="3">
         <v>4100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3030700</v>
+      </c>
+      <c r="E44" s="3">
         <v>2709600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2678200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2485100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2568200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2191200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2199800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1992800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2084700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1783300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1915000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1688500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1905900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1602800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1812800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1733200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1881300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1589500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1737300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1632300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1760100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1453200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1591600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1468300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1657800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1369700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1489900</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>235500</v>
+      </c>
+      <c r="E45" s="3">
         <v>245700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>211900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>214400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>185600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>164100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>149600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>162300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>146200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>133700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>136100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>135200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>112900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>104500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>95100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>90700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>114400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>109500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>103400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>86800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>88300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>75600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>90400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>86500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>90600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3458900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3157800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3109800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3230400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3168300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3250400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3467900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3567100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3380800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3258700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3171000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3030100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2480200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1787900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2005500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1937800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2079100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1794400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1941700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1810700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1984100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1655400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1742000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1630500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1824300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1517800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1629800</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3674,91 +3779,97 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5095400</v>
+      </c>
+      <c r="E48" s="3">
         <v>5037400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4647100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4504700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4399800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4403700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4167200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4008900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3876400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3672800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3532800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3416800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3371800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3352800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3276300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3226700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3207800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1134500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1112000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1081500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1050400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1044500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>996800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>982400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>957000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>962300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>923200</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3766,7 +3877,7 @@
         <v>253300</v>
       </c>
       <c r="E49" s="3">
-        <v>55500</v>
+        <v>253300</v>
       </c>
       <c r="F49" s="3">
         <v>55500</v>
@@ -3790,7 +3901,7 @@
         <v>55500</v>
       </c>
       <c r="M49" s="3">
-        <v>124500</v>
+        <v>55500</v>
       </c>
       <c r="N49" s="3">
         <v>124500</v>
@@ -3829,7 +3940,7 @@
         <v>124500</v>
       </c>
       <c r="Z49" s="3">
-        <v>125700</v>
+        <v>124500</v>
       </c>
       <c r="AA49" s="3">
         <v>125700</v>
@@ -3838,10 +3949,13 @@
         <v>125700</v>
       </c>
       <c r="AC49" s="3">
+        <v>125700</v>
+      </c>
+      <c r="AD49" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3923,8 +4037,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4006,91 +4123,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E52" s="3">
         <v>41500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>99300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>78600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>63200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>57800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>54600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>56300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>46900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>62100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>32500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>39600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>25900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>24100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>23000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>23700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>25800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>31900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>42700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>50600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>48800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>44400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>65000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>77000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>69400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>69100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4172,91 +4295,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8848800</v>
+      </c>
+      <c r="E54" s="3">
         <v>8490000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7911700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7869200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7686800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7767500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7745200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7687900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7359700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7049100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6860800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6611100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6002400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5289300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5429300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5312700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5437200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3085300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3220900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3067400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3207800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2868800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2928400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2815600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2976400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2674900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2635700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4286,8 +4415,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4317,506 +4447,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1526500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1398300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1219600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1280500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1341600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1155600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1197800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1221900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1181900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>976100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1056900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1003700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>887900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>643000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>679800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>681500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>785100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>620000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>683700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>649700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>732500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>576600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>609900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>510800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>563500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>519500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>484000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E58" s="3">
         <v>3200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>384400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>384300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>34200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>34000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>33900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>26200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>24900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>29900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>30000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>28700</v>
-      </c>
-      <c r="W58" s="3">
-        <v>28500</v>
       </c>
       <c r="X58" s="3">
         <v>28500</v>
       </c>
       <c r="Y58" s="3">
+        <v>28500</v>
+      </c>
+      <c r="Z58" s="3">
         <v>26000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>23400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>13900</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>11300</v>
       </c>
       <c r="AC58" s="3">
         <v>11300</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>820300</v>
+      </c>
+      <c r="E59" s="3">
         <v>974700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>872500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>958200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>854000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>905300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>844000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>856800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>789300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>763100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>691300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>769000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>572000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>570500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>538000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>563600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>501900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>288200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>260900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>263100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>252900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>244100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>236300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>272300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>239700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>246400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2349700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2376200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2095200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2242200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2199700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2064800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2046000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2083500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1975900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1743800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2132700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2157100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1494100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1247600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1251700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1271400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1311900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>938100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>974500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>941500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1013900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>849200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>872200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>806500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>817100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>777200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>712300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1635400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1198700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1113400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1023300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1023500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1019200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1015900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1016000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1016700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1017400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>562200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>568100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1020200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>396900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>643100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>493700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>634000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>410400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>577200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>547000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>711300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>433700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>520700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>467500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>624400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>289800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>310000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2949200</v>
+      </c>
+      <c r="E62" s="3">
         <v>2872700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2762000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2689900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2673600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2680700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2662500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2608200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2514700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2364100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2290100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2190100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2134300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2077700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2042700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2002700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2005700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>175000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>173900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>172800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>169300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>167200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>164000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>159000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>155400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>154800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4898,8 +5047,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4981,8 +5133,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5064,91 +5219,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6934300</v>
+      </c>
+      <c r="E66" s="3">
         <v>6447600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5970600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5955300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5896800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5764800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5724400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5707800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5507400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5125300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4984900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4915300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4648700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3722100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3937500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3767800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3951600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1523400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1725600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1661400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1894500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1450100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1557000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1433000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1596900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1221700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5178,8 +5339,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5261,8 +5423,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5344,8 +5509,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5427,8 +5595,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5510,91 +5681,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5694000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5624400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5455100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5322900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5029000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4945200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4783100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4618000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4307900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4187100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4097900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3953800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3655800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3612800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3510100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3429500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3252400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3213900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3115000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3036000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2866500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2829200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2753300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2695600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2569500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2540400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2448300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5676,8 +5853,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5759,8 +5939,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5842,91 +6025,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1914500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2042400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1941100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1913900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1790000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2002700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2020800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1980100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1852300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1923800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1875900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1695700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1353700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1567100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1491800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1544900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1485600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1561800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1495300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1406000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1313200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1418700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1371400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1382600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1379500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1453200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1464700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6008,179 +6197,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44828</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44737</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44464</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>183100</v>
+      </c>
+      <c r="E81" s="3">
         <v>270900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>234100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>396500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>187200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>221300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>224400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>370000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>181400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>135900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>190600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>338700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>83800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>144200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>122100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>219200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>76800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>136900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>116800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>207300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>71400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>109700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>91900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>160600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>60300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>123600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6210,91 +6408,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E83" s="3">
         <v>94800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>87200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>83400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>77600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>75400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>69800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>64900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>60100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>58500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>54700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>52500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>51400</v>
       </c>
       <c r="P83" s="3">
         <v>51400</v>
       </c>
       <c r="Q83" s="3">
+        <v>51400</v>
+      </c>
+      <c r="R83" s="3">
         <v>49800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>49000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>45800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>46000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>45000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>43600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>42800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>43100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>41900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>41000</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>39700</v>
       </c>
       <c r="AB83" s="3">
         <v>39700</v>
       </c>
       <c r="AC83" s="3">
+        <v>39700</v>
+      </c>
+      <c r="AD83" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6376,8 +6578,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6459,8 +6664,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6542,8 +6750,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6625,8 +6836,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6708,91 +6922,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E89" s="3">
         <v>730600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>566500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>59100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>266900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>62900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>631800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>177100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>389500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>909200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>83900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>397400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>65500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>361900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-13000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>341000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>79400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>295900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-21900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>290500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>113500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>369200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-141700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>376700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6822,91 +7042,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-157900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-322200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-185800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-152900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-112400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-246100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-166300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-115300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-132700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-74700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-57000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-29600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-73100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-60800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-54800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-28800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-84800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-77000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-71600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-45100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-98400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-55400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-61700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-34900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-284900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6988,8 +7212,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7071,91 +7298,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-157700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-642700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-185900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-152800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-112300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-246100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-165600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-115200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-132000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-74200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-56700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-29300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-72900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-59100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-54500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-28400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-84700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-75300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-71300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-45100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-96800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-55300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-51000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-34900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-202500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7185,91 +7418,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-113400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-101700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-101900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-102600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-103500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-59200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-59400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-59900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-60600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-46600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-46500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-40600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-40800</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-41500</v>
       </c>
       <c r="Q96" s="3">
         <v>-41500</v>
       </c>
       <c r="R96" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="S96" s="3">
         <v>-42100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-37600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-37900</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-37800</v>
       </c>
       <c r="V96" s="3">
         <v>-37800</v>
       </c>
       <c r="W96" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="X96" s="3">
         <v>-33600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-33900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-34100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-34600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-31300</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-31400</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7351,8 +7588,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7434,8 +7674,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7517,91 +7760,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>125700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-96600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-134500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-288300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-419400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-254500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-197700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-254500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-268400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-27700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-32000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-107700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>322600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-322900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-27700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-305600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>57400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-241300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-287000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>90200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-154600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-55900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-323100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>195300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-164200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7683,87 +7932,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-319600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>125400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-472600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-233700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>262100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-191800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>229800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-94400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>744900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>377200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-21400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>15900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>15000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-62400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>23300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>39100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-4900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>18800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-95600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>TSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,383 +665,395 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44828</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44737</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44464</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4184700</v>
+      </c>
+      <c r="E8" s="3">
         <v>3299200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4006400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3270800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3903400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3024100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3319300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3017900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3601600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2792300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2878300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2606600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3176300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1959200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2191800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1984100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2353800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1822200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2133300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1881600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2213200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1682900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1952800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1721700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2017800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1564100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1916500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1542700</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2669900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2129300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2642800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2105000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2517200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1967600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2198700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1932600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2314100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1808600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1882700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1658600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2019500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1297900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1450000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1289900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1533000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1207200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1416900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1228500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1443800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1119300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1284200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1121200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1313100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1045900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1270300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1007400</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1514800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1169900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1363700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1165800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1386200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1056500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1120600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1085300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1287500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>983700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>995600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>948000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1156800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>661300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>741800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>694200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>820800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>615000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>716400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>653100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>769400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>563600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>668600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>600500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>704700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>518200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>646200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>535300</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1072,8 +1084,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1158,8 +1171,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1244,19 +1260,22 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1264,11 +1283,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1276,11 +1295,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>69000</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1297,8 +1316,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1330,94 +1349,100 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>102300</v>
+      </c>
+      <c r="E15" s="3">
         <v>97200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>94800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>87200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>83400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>77600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>75400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>69800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>64900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>60100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>58500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>54700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>52500</v>
-      </c>
-      <c r="P15" s="3">
-        <v>51400</v>
       </c>
       <c r="Q15" s="3">
         <v>51400</v>
       </c>
       <c r="R15" s="3">
+        <v>51400</v>
+      </c>
+      <c r="S15" s="3">
         <v>49800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>49000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>45800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>46000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>45000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>43600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>42800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>43100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>41900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>41000</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>39700</v>
       </c>
       <c r="AC15" s="3">
         <v>39700</v>
       </c>
       <c r="AD15" s="3">
+        <v>39700</v>
+      </c>
+      <c r="AE15" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1445,180 +1470,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3625400</v>
+      </c>
+      <c r="E17" s="3">
         <v>3054800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3647200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2964400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3378400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2779800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3026200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2720700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3115700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2561800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2693800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2354400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2728600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1846700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2001300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1822300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2066200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1718800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1952900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1728500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1939800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1588200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1769000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1573500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1759800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1467700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1721900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1400700</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>559300</v>
+      </c>
+      <c r="E18" s="3">
         <v>244400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>359200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>306400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>525000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>244300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>293100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>297200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>485900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>230500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>184500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>252200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>447700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>112600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>190500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>161800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>287600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>103400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>180400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>153100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>273400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>94700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>183800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>148200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>258000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>96400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>194600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1649,8 +1681,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1712,11 +1745,11 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
@@ -1735,352 +1768,367 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>661600</v>
+      </c>
+      <c r="E21" s="3">
         <v>341700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>454000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>393600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>608400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>321900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>368500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>367000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>550700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>290600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>243000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>306800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>500300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>164000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>241800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>211600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>336600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>149200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>226300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>198200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>317100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>137600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>227000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>190200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>299000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>136100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>234300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>177700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E22" s="3">
         <v>12700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>7100</v>
       </c>
       <c r="H22" s="3">
         <v>7100</v>
       </c>
       <c r="I22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J22" s="3">
         <v>6500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>2800</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>1700</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>547000</v>
+      </c>
+      <c r="E23" s="3">
         <v>231800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>349000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>517900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>237200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>286500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>291100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>479200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>223300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>176400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>245000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>439300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>107500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>185600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>156900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>282400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>98500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>175900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>148700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>268500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>90300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>179600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>144500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>254800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>93600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>193000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>125800</v>
+      </c>
+      <c r="E24" s="3">
         <v>48700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>78100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>66000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>121500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>50000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>65200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>66700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>109200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>42000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>40500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>54400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>41400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>34800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>63200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>39100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>31900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>61200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>18800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>65000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>52600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>94200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>33300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>69400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2165,180 +2213,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>421200</v>
+      </c>
+      <c r="E26" s="3">
         <v>183100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>270900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>234100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>396500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>187200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>221300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>224400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>370000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>181400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>135900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>190600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>338700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>83800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>144200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>122100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>219200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>76800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>136900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>116800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>207300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>71400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>114600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>91900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>160600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>60300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>123600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>421200</v>
+      </c>
+      <c r="E27" s="3">
         <v>183100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>270900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>234100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>396500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>187200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>221300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>224400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>370000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>181400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>135900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>190600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>338700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>83800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>144200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>122100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>219200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>76800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>136900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>116800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>207300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>71400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>114600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>91900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>160600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>60300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>123600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2423,8 +2480,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2473,17 +2533,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2491,11 +2551,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-4900</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2509,8 +2569,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2595,8 +2658,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2681,8 +2747,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2744,11 +2813,11 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
@@ -2767,94 +2836,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>421200</v>
+      </c>
+      <c r="E33" s="3">
         <v>183100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>270900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>234100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>396500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>187200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>221300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>224400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>370000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>181400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>135900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>190600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>338700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>83800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>144200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>122100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>219200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>76800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>136900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>116800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>207300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>71400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>109700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>91900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>160600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>60300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>123600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2939,185 +3014,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>421200</v>
+      </c>
+      <c r="E35" s="3">
         <v>183100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>270900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>234100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>396500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>187200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>221300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>224400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>370000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>181400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>135900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>190600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>338700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>83800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>144200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>122100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>219200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>76800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>136900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>116800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>207300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>71400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>109700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>91900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>160600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>60300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>123600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44828</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44737</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44464</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3148,8 +3232,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3180,94 +3265,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>620000</v>
+      </c>
+      <c r="E41" s="3">
         <v>190100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>202500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>211200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>530800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>405400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>878000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1111700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1412000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1149900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1341800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1112000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1206400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>461500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>84200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>82600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>104000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>102200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>86300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>71300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>70000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>132400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>109100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>70000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>67800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>72700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>53900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3352,34 +3441,37 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3">
         <v>2600</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>8400</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>9000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6800</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
@@ -3387,12 +3479,12 @@
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>7800</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
@@ -3400,25 +3492,25 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>5600</v>
       </c>
       <c r="T43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="U43" s="3">
         <v>4800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>23700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5100</v>
-      </c>
-      <c r="X43" s="3">
-        <v>4800</v>
       </c>
       <c r="Y43" s="3">
         <v>4800</v>
@@ -3427,277 +3519,289 @@
         <v>4800</v>
       </c>
       <c r="AA43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="AB43" s="3">
         <v>4100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>7300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2660100</v>
+      </c>
+      <c r="E44" s="3">
         <v>3030700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2709600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2678200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2485100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2568200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2191200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2199800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1992800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2084700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1783300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1915000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1688500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1905900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1602800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1812800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1733200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1881300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1589500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1737300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1632300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1760100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1453200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1591600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1468300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1657800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1369700</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1489900</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>297200</v>
+      </c>
+      <c r="E45" s="3">
         <v>235500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>245700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>211900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>214400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>185600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>164100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>149600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>162300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>146200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>133700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>136100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>135200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>112900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>104500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>95100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>90700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>114400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>109500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>103400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>86800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>88300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>75600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>90400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>86500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>90600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3577300</v>
+      </c>
+      <c r="E46" s="3">
         <v>3458900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3157800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3109800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3230400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3168300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3250400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3467900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3567100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3380800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3258700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3171000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3030100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2480200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1787900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2005500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1937800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2079100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1794400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1941700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1810700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1984100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1655400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1742000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1630500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1824300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1517800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1629800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3782,105 +3886,111 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5143300</v>
+      </c>
+      <c r="E48" s="3">
         <v>5095400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5037400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4647100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4504700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4399800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4403700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4167200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4008900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3876400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3672800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3532800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3416800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3371800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3352800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3276300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3226700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3207800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1134500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1112000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1081500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1050400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1044500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>996800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>982400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>957000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>962300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>923200</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>253300</v>
+        <v>267100</v>
       </c>
       <c r="E49" s="3">
         <v>253300</v>
       </c>
       <c r="F49" s="3">
-        <v>55500</v>
+        <v>253300</v>
       </c>
       <c r="G49" s="3">
         <v>55500</v>
@@ -3904,7 +4014,7 @@
         <v>55500</v>
       </c>
       <c r="N49" s="3">
-        <v>124500</v>
+        <v>55500</v>
       </c>
       <c r="O49" s="3">
         <v>124500</v>
@@ -3943,7 +4053,7 @@
         <v>124500</v>
       </c>
       <c r="AA49" s="3">
-        <v>125700</v>
+        <v>124500</v>
       </c>
       <c r="AB49" s="3">
         <v>125700</v>
@@ -3952,10 +4062,13 @@
         <v>125700</v>
       </c>
       <c r="AD49" s="3">
+        <v>125700</v>
+      </c>
+      <c r="AE49" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4040,8 +4153,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4126,94 +4242,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E52" s="3">
         <v>41300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>41500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>99300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>78600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>63200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>57800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>54600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>56300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>46900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>62100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>32500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>39600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>25900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>24100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>23000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>23700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>25800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>31900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>42700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>50600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>48800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>44400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>65000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>77000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>69400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>69100</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4298,94 +4420,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9032800</v>
+      </c>
+      <c r="E54" s="3">
         <v>8848800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8490000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7911700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7869200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7686800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7767500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7745200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7687900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7359700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7049100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6860800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6611100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6002400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5289300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5429300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5312700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5437200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3085300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3220900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3067400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3207800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2868800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2928400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2815600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2976400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2674900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2635700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4416,8 +4544,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4448,524 +4577,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1272200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1526500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1398300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1219600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1280500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1341600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1155600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1197800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1221900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1181900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>976100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1056900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1003700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>887900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>643000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>679800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>681500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>785100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>620000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>683700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>649700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>732500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>576600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>609900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>510800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>563500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>519500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>484000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
         <v>2800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>384400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>384300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>34200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>34000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>33900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>26200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>24900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>29900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>30000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>28700</v>
-      </c>
-      <c r="X58" s="3">
-        <v>28500</v>
       </c>
       <c r="Y58" s="3">
         <v>28500</v>
       </c>
       <c r="Z58" s="3">
+        <v>28500</v>
+      </c>
+      <c r="AA58" s="3">
         <v>26000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>23400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>13900</v>
-      </c>
-      <c r="AC58" s="3">
-        <v>11300</v>
       </c>
       <c r="AD58" s="3">
         <v>11300</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>962400</v>
+      </c>
+      <c r="E59" s="3">
         <v>820300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>974700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>872500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>958200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>854000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>905300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>844000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>856800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>789300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>763100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>691300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>769000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>572000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>570500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>538000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>563600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>501900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>288200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>260900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>263100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>252900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>244100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>236300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>272300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>239700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>246400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2237500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2349700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2376200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2095200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2242200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2199700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2064800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2046000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2083500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1975900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1743800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2132700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2157100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1494100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1247600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1251700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1271400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1311900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>938100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>974500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>941500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1013900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>849200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>872200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>806500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>817100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>777200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>712300</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1760500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1635400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1198700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1113400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1023300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1023500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1019200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1015900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1016000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1016700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1017400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>562200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>568100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1020200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>396900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>643100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>493700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>634000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>410400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>577200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>547000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>711300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>433700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>520700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>467500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>624400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>289800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>310000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2947700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2949200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2872700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2762000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2689900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2673600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2680700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2662500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2608200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2514700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2364100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2290100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2190100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2134300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2077700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2042700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2002700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2005700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>175000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>173900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>172800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>169300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>167200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>164000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>159000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>155400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>154800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5050,8 +5198,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5136,8 +5287,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5222,94 +5376,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6945700</v>
+      </c>
+      <c r="E66" s="3">
         <v>6934300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6447600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5970600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5955300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5896800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5764800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5724400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5707800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5507400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5125300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4984900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4915300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4648700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3722100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3937500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3767800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3951600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1523400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1725600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1661400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1894500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1450100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1557000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1433000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1596900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1221700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5340,8 +5500,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5426,8 +5587,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5512,8 +5676,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5598,8 +5765,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5684,94 +5854,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6002500</v>
+      </c>
+      <c r="E72" s="3">
         <v>5694000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5624400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5455100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5322900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5029000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4945200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4783100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4618000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4307900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4187100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4097900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3953800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3655800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3612800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3510100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3429500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3252400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3213900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3115000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3036000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2866500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2829200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2753300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2695600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2569500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2540400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>2448300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5856,8 +6032,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5942,8 +6121,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6028,94 +6210,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2087200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1914500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2042400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1941100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1913900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1790000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2002700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2020800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1980100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1852300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1923800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1875900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1695700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1353700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1567100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1491800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1544900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1485600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1561800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1495300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1406000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1313200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1418700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1371400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1382600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1379500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1453200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1464700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6200,185 +6388,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44828</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44737</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44464</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>421200</v>
+      </c>
+      <c r="E81" s="3">
         <v>183100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>270900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>234100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>396500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>187200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>221300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>224400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>370000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>181400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>135900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>190600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>338700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>83800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>144200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>122100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>219200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>76800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>136900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>116800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>207300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>71400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>109700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>91900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>160600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>60300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>123600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6409,94 +6606,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>102300</v>
+      </c>
+      <c r="E83" s="3">
         <v>97200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>94800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>87200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>83400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>77600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>75400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>69800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>64900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>60100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>58500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>54700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>52500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>51400</v>
       </c>
       <c r="Q83" s="3">
         <v>51400</v>
       </c>
       <c r="R83" s="3">
+        <v>51400</v>
+      </c>
+      <c r="S83" s="3">
         <v>49800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>49000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>45800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>46000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>45000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>43600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>42800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>43100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>41900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>41000</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>39700</v>
       </c>
       <c r="AC83" s="3">
         <v>39700</v>
       </c>
       <c r="AD83" s="3">
+        <v>39700</v>
+      </c>
+      <c r="AE83" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6581,8 +6782,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6667,8 +6871,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6753,8 +6960,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6839,8 +7049,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6925,94 +7138,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>762800</v>
+      </c>
+      <c r="E89" s="3">
         <v>19600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>730600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>566500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>59100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>266900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>62900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>631800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>177100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>389500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>909200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>83900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>397400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>65500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>361900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-13000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>341000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>79400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>295900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-21900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>290500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>113500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>369200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-141700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>376700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7043,94 +7262,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-191600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-157900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-322200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-185800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-152900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-112400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-246100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-166300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-115300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-132700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-74700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-57000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-29600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-73100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-60800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-54800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-28800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-84800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-77000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-71600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-45100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-98400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-55400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-61700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-34900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-284900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7215,8 +7438,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7301,94 +7527,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-186800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-157700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-642700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-185900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-152800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-112300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-246100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-165600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-115200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-132000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-74200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-56700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-29300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-72900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-59100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-54500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-28400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-84700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-75300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-71300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-45100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-96800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-55300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-51000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-34900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-202500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7419,94 +7651,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-112800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-113400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-101700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-101900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-102600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-103500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-59200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-59400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-59900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-60600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-46600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-46500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-40600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-40800</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-41500</v>
       </c>
       <c r="R96" s="3">
         <v>-41500</v>
       </c>
       <c r="S96" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="T96" s="3">
         <v>-42100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-37600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-37900</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-37800</v>
       </c>
       <c r="W96" s="3">
         <v>-37800</v>
       </c>
       <c r="X96" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-33600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-33900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-34100</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-34600</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-31300</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-31400</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7591,8 +7827,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7677,8 +7916,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7763,94 +8005,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-146000</v>
+      </c>
+      <c r="E100" s="3">
         <v>125700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-96600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-134500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-288300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-419400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-254500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-197700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-254500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-268400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-27700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-32000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-107700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>322600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-322900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-27700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-305600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>57400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-241300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-287000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>90200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-154600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-55900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-323100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>195300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-164200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7935,90 +8183,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>430000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-319600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>125400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-472600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-233700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>262100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-191800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>229800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-94400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>744900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>377200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-21400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>15900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>15000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-62400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>23300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>39100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-4900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>18800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-95600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>TSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,395 +665,408 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44828</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44737</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44464</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3412000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4184700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3299200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4006400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3270800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3903400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3024100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3319300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3017900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3601600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2792300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2878300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2606600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3176300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1959200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2191800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1984100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2353800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1822200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2133300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1881600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2213200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1682900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1952800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1721700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2017800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1564100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1916500</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1542700</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2161500</v>
+      </c>
+      <c r="E9" s="3">
         <v>2669900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2129300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2642800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2105000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2517200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1967600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2198700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1932600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2314100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1808600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1882700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1658600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2019500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1297900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1450000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1289900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1533000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1207200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1416900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1228500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1443800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1119300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1284200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1121200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1313100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1045900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1270300</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1007400</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1250500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1514800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1169900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1363700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1165800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1386200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1056500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1120600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1085300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1287500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>983700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>995600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>948000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1156800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>661300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>741800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>694200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>820800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>615000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>716400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>653100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>769400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>563600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>668600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>600500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>704700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>518200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>646200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>535300</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1085,8 +1098,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1174,8 +1188,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1263,8 +1280,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1274,11 +1294,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1286,11 +1306,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1298,11 +1318,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>69000</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1319,8 +1339,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1352,97 +1372,103 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E15" s="3">
         <v>102300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>97200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>94800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>87200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>83400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>77600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>75400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>69800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>64900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>60100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>58500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>54700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>52500</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>51400</v>
       </c>
       <c r="R15" s="3">
         <v>51400</v>
       </c>
       <c r="S15" s="3">
+        <v>51400</v>
+      </c>
+      <c r="T15" s="3">
         <v>49800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>49000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>45800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>46000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>45000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>43600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>42800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>43100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>41900</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>41000</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>39700</v>
       </c>
       <c r="AD15" s="3">
         <v>39700</v>
       </c>
       <c r="AE15" s="3">
+        <v>39700</v>
+      </c>
+      <c r="AF15" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1471,186 +1497,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3071100</v>
+      </c>
+      <c r="E17" s="3">
         <v>3625400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3054800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3647200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2964400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3378400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2779800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3026200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2720700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3115700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2561800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2693800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2354400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2728600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1846700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2001300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1822300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2066200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1718800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1952900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1728500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1939800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1588200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1769000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1573500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1759800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1467700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1721900</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1400700</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>340900</v>
+      </c>
+      <c r="E18" s="3">
         <v>559300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>244400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>359200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>306400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>525000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>244300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>293100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>297200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>485900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>230500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>184500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>252200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>447700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>112600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>190500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>161800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>287600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>103400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>180400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>153100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>273400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>94700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>183800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>148200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>258000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>96400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>194600</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1682,8 +1715,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1748,11 +1782,11 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
@@ -1771,364 +1805,379 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>431200</v>
+      </c>
+      <c r="E21" s="3">
         <v>661600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>341700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>454000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>393600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>608400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>321900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>368500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>367000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>550700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>290600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>243000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>306800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>500300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>164000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>241800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>211600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>336600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>149200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>226300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>198200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>317100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>137600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>227000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>190200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>299000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>136100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>234300</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>177700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E22" s="3">
         <v>12300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>7100</v>
       </c>
       <c r="I22" s="3">
         <v>7100</v>
       </c>
       <c r="J22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K22" s="3">
         <v>6500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>4200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3800</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>3100</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>2800</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>1700</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>331400</v>
+      </c>
+      <c r="E23" s="3">
         <v>547000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>231800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>349000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>517900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>237200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>286500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>291100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>479200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>223300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>176400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>245000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>439300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>107500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>185600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>156900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>282400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>98500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>175900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>148700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>268500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>90300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>179600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>144500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>254800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>93600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>193000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>140900</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>76400</v>
+      </c>
+      <c r="E24" s="3">
         <v>125800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>48700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>78100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>66000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>121500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>50000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>65200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>66700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>109200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>42000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>40500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>54400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>41400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>34800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>63200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>39100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>31900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>61200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>18800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>65000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>52600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>94200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>33300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>69400</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2216,186 +2265,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E26" s="3">
         <v>421200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>183100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>270900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>234100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>396500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>187200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>221300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>224400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>370000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>181400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>135900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>190600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>338700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>83800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>144200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>122100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>219200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>76800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>136900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>116800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>207300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>71400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>114600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>91900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>160600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>60300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>123600</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E27" s="3">
         <v>421200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>183100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>270900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>234100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>396500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>187200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>221300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>224400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>370000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>181400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>135900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>190600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>338700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>83800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>144200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>122100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>219200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>76800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>136900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>116800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>207300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>71400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>114600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>91900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>160600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>60300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>123600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2483,8 +2541,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2536,17 +2597,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2554,11 +2615,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-4900</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2572,8 +2633,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2661,8 +2725,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2750,8 +2817,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2816,11 +2886,11 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
@@ -2839,97 +2909,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E33" s="3">
         <v>421200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>183100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>270900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>234100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>396500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>187200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>221300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>224400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>370000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>181400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>135900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>190600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>338700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>83800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>144200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>122100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>219200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>76800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>136900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>116800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>207300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>71400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>109700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>91900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>160600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>60300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>123600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3017,191 +3093,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E35" s="3">
         <v>421200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>183100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>270900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>234100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>396500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>187200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>221300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>224400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>370000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>181400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>135900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>190600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>338700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>83800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>144200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>122100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>219200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>76800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>136900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>116800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>207300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>71400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>109700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>91900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>160600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>60300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>123600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44828</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44737</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44464</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3233,8 +3318,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3266,97 +3352,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>421700</v>
+      </c>
+      <c r="E41" s="3">
         <v>620000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>190100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>202500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>211200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>530800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>405400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>878000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1111700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1412000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1149900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1341800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1112000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1206400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>461500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>84200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>82600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>104000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>102200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>86300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>71300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>70000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>132400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>109100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>70000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>67800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>72700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>53900</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3444,37 +3534,40 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>8400</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>9000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6800</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
@@ -3482,12 +3575,12 @@
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3">
         <v>7800</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
@@ -3495,25 +3588,25 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>5600</v>
       </c>
       <c r="U43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="V43" s="3">
         <v>4800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>23700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5100</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>4800</v>
       </c>
       <c r="Z43" s="3">
         <v>4800</v>
@@ -3522,286 +3615,298 @@
         <v>4800</v>
       </c>
       <c r="AB43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="AC43" s="3">
         <v>4100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>7300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3700</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2834200</v>
+      </c>
+      <c r="E44" s="3">
         <v>2660100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3030700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2709600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2678200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2485100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2568200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2191200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2199800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1992800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2084700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1783300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1915000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1688500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1905900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1602800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1812800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1733200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1881300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1589500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1737300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1632300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1760100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1453200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1591600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1468300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1657800</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1369700</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>1489900</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>278200</v>
+      </c>
+      <c r="E45" s="3">
         <v>297200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>235500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>245700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>211900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>214400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>185600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>164100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>149600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>162300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>146200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>133700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>136100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>135200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>112900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>100900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>104500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>95100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>90700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>114400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>109500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>103400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>86800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>88300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>75600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>90400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>86500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>90600</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3534100</v>
+      </c>
+      <c r="E46" s="3">
         <v>3577300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3458900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3157800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3109800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3230400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3168300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3250400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3467900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3567100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3380800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3258700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3171000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3030100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2480200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1787900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2005500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1937800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2079100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1794400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1941700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1810700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1984100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1655400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1742000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1630500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1824300</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1517800</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1629800</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3889,111 +3994,117 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5358600</v>
+      </c>
+      <c r="E48" s="3">
         <v>5143300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5095400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5037400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4647100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4504700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4399800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4403700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4167200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4008900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3876400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3672800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3532800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3416800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3371800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3352800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3276300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3226700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3207800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1134500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1112000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1081500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1050400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1044500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>996800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>982400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>957000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>962300</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>923200</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>267300</v>
+      </c>
+      <c r="E49" s="3">
         <v>267100</v>
-      </c>
-      <c r="E49" s="3">
-        <v>253300</v>
       </c>
       <c r="F49" s="3">
         <v>253300</v>
       </c>
       <c r="G49" s="3">
-        <v>55500</v>
+        <v>253300</v>
       </c>
       <c r="H49" s="3">
         <v>55500</v>
@@ -4017,7 +4128,7 @@
         <v>55500</v>
       </c>
       <c r="O49" s="3">
-        <v>124500</v>
+        <v>55500</v>
       </c>
       <c r="P49" s="3">
         <v>124500</v>
@@ -4056,7 +4167,7 @@
         <v>124500</v>
       </c>
       <c r="AB49" s="3">
-        <v>125700</v>
+        <v>124500</v>
       </c>
       <c r="AC49" s="3">
         <v>125700</v>
@@ -4065,10 +4176,13 @@
         <v>125700</v>
       </c>
       <c r="AE49" s="3">
+        <v>125700</v>
+      </c>
+      <c r="AF49" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4156,8 +4270,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4245,97 +4362,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E52" s="3">
         <v>45200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>41300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>41500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>99300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>78600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>63200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>57800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>54600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>56300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>46900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>62100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>32500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>39600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>25900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>24100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>23000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>23700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>25800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>31900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>42700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>50600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>48800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>44400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>65000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>77000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>69400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>69100</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4423,97 +4546,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9205000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9032800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8848800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8490000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7911700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7869200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7686800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7767500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7745200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7687900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7359700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7049100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6860800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6611100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6002400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5289300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5429300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5312700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5437200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3085300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3220900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3067400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3207800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2868800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2928400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2815600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2976400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2674900</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>2635700</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4545,8 +4674,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4578,542 +4708,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1412200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1272200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1526500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1398300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1219600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1280500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1341600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1155600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1197800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1221900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1181900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>976100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1056900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1003700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>887900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>643000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>679800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>681500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>785100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>620000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>683700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>649700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>732500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>576600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>609900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>510800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>563500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>519500</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>484000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E58" s="3">
         <v>2900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>384400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>384300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>34200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>34000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>33900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>26200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>24900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>29900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>30000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>28700</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>28500</v>
       </c>
       <c r="Z58" s="3">
         <v>28500</v>
       </c>
       <c r="AA58" s="3">
+        <v>28500</v>
+      </c>
+      <c r="AB58" s="3">
         <v>26000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>23400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>13900</v>
-      </c>
-      <c r="AD58" s="3">
-        <v>11300</v>
       </c>
       <c r="AE58" s="3">
         <v>11300</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>903300</v>
+      </c>
+      <c r="E59" s="3">
         <v>962400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>820300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>974700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>872500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>958200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>854000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>905300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>844000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>856800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>789300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>763100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>691300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>769000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>572000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>570500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>538000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>563600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>501900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>288200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>260900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>263100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>252900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>244100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>236300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>272300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>239700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>246400</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2318800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2237500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2349700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2376200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2095200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2242200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2199700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2064800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2046000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2083500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1975900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1743800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2132700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2157100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1494100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1247600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1251700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1271400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1311900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>938100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>974500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>941500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1013900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>849200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>872200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>806500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>817100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>777200</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>712300</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1760400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1760500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1635400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1198700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1113400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1023300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1023500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1019200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1015900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1016000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1016700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1017400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>562200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>568100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1020200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>396900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>643100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>493700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>634000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>410400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>577200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>547000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>711300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>433700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>520700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>467500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>624400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>289800</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>310000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3014700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2947700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2949200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2872700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2762000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2689900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2673600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2680700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2662500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2608200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2514700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2364100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2290100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2190100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2134300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2077700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2042700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2002700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2005700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>175000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>173900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>172800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>169300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>167200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>164000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>159000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>155400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>154800</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5201,8 +5350,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5290,8 +5442,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5379,97 +5534,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7093900</v>
+      </c>
+      <c r="E66" s="3">
         <v>6945700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6934300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6447600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5970600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5955300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5896800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5764800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5724400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5707800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5507400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5125300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4984900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4915300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4648700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3722100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3937500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3767800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3951600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1523400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1725600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1661400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1894500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1450100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1557000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1433000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1596900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1221700</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5501,8 +5662,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5590,8 +5752,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5679,8 +5844,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5768,8 +5936,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5857,97 +6028,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6145500</v>
+      </c>
+      <c r="E72" s="3">
         <v>6002500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5694000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5624400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5455100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5322900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5029000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4945200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4783100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4618000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4307900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4187100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4097900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3953800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3655800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3612800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3510100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3429500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3252400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3213900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3115000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3036000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2866500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2829200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2753300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2695600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2569500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>2540400</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>2448300</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6035,8 +6212,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6124,8 +6304,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6213,97 +6396,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2111100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2087200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1914500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2042400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1941100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1913900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1790000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2002700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2020800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1980100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1852300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1923800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1875900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1695700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1353700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1567100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1491800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1544900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1485600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1561800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1495300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1406000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1313200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1418700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1371400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1382600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1379500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1453200</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>1464700</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6391,191 +6580,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44828</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44737</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44464</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E81" s="3">
         <v>421200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>183100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>270900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>234100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>396500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>187200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>221300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>224400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>370000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>181400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>135900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>190600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>338700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>83800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>144200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>122100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>219200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>76800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>136900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>116800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>207300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>71400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>109700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>91900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>160600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>60300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>123600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6607,97 +6805,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E83" s="3">
         <v>102300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>97200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>94800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>87200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>83400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>77600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>75400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>69800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>64900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>60100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>58500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>54700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>52500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>51400</v>
       </c>
       <c r="R83" s="3">
         <v>51400</v>
       </c>
       <c r="S83" s="3">
+        <v>51400</v>
+      </c>
+      <c r="T83" s="3">
         <v>49800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>49000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>45800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>46000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>45000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>43600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>42800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>43100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>41900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>41000</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>39700</v>
       </c>
       <c r="AD83" s="3">
         <v>39700</v>
       </c>
       <c r="AE83" s="3">
+        <v>39700</v>
+      </c>
+      <c r="AF83" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6785,8 +6987,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6874,8 +7079,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6963,8 +7171,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7052,8 +7263,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7141,97 +7355,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>155600</v>
+      </c>
+      <c r="E89" s="3">
         <v>762800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>19600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>730600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>566500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>59100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>266900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>62900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>631800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>177100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>389500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>909200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>83900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>397400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>65500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>361900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-13000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>341000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>79400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>295900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-21900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>290500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>113500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>369200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-141700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>376700</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7263,97 +7483,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-177100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-191600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-157900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-322200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-185800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-152900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-112400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-246100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-166300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-115300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-132700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-74700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-57000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-29600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-73100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-60800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-54800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-28800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-84800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-77000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-71600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-45100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-98400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-55400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-61700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-34900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-284900</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7441,8 +7665,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7530,97 +7757,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-110100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-186800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-157700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-642700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-185900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-152800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-112300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-246100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-165600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-115200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-132000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-74200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-56700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-29300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-72900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-59100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-54500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-28400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-84700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-75300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-71300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-45100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-96800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-55300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-51000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-34900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-202500</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7652,97 +7885,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-112800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-113400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-101700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-101900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-102600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-103500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-59200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-59400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-59900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-60600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-46600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-46500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-40600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-40800</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-41500</v>
       </c>
       <c r="S96" s="3">
         <v>-41500</v>
       </c>
       <c r="T96" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="U96" s="3">
         <v>-42100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-37600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-37900</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-37800</v>
       </c>
       <c r="X96" s="3">
         <v>-37800</v>
       </c>
       <c r="Y96" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-33600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-33900</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-34100</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-34600</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-31300</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-31400</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7830,8 +8067,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7919,8 +8159,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8008,97 +8251,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-243800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-146000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>125700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-96600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-134500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-288300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-419400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-254500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-197700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-254500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-268400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-27700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-32000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-107700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>322600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-322900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-27700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-305600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>57400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-241300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-287000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>90200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-154600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-55900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-323100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>195300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-164200</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8186,93 +8435,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-198300</v>
+      </c>
+      <c r="E102" s="3">
         <v>430000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-319600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>125400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-472600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-233700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>262100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-191800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>229800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-94400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>744900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>377200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-21400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>15900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>15000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-62400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>23300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>39100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-4900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>18800</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1600</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-95600</v>
       </c>
     </row>
